--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1409365.98904429</v>
+        <v>1354728.99934605</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2997551.501605988</v>
+        <v>3003638.261695865</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10874709.98547778</v>
+        <v>10834384.46297051</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6899399.130896911</v>
+        <v>6905057.301657768</v>
       </c>
     </row>
     <row r="11">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>10.28755987289279</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>12.27879261133805</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>93.59708250873959</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>93.59708250873959</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>93.59708250873959</v>
+        <v>84.39771755507512</v>
       </c>
       <c r="I17" t="n">
-        <v>82.44031027369782</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>95.81938868650676</v>
       </c>
     </row>
     <row r="18">
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="D18" t="n">
-        <v>93.59708250873959</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>93.59708250873959</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>93.59708250873959</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>68.95105094030657</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>13.4892593333912</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1988,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>84.39771755507512</v>
       </c>
     </row>
     <row r="19">
@@ -2019,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>93.59708250873959</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="I19" t="n">
-        <v>93.59708250873959</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>50.07478682048289</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="U19" t="n">
-        <v>32.36552345321488</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.59708250873959</v>
+        <v>84.39771755507512</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>111.8983590133541</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>111.8983590133541</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>100.5174819003395</v>
       </c>
       <c r="E20" t="n">
-        <v>111.8983590133541</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>98.56007461896229</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>41.68663376250901</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>56.87344085645325</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>43.32925834552126</v>
       </c>
       <c r="S21" t="n">
-        <v>111.8983590133541</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="T21" t="n">
-        <v>111.8983590133541</v>
+        <v>57.18822355481827</v>
       </c>
       <c r="U21" t="n">
-        <v>111.8983590133541</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2241,28 +2241,28 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>77.40597523442939</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>89.60538683944731</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>111.8983590133541</v>
+        <v>111.1624035513369</v>
       </c>
       <c r="H22" t="n">
-        <v>106.8651691273964</v>
+        <v>13.87035670067658</v>
       </c>
       <c r="I22" t="n">
-        <v>100.0884715472151</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>37.99717673662956</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>114.1206651911212</v>
       </c>
     </row>
     <row r="23">
@@ -2326,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>78.89776435456365</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>121.0792567189908</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S23" t="n">
-        <v>119.6234367348303</v>
+        <v>18.11368384099107</v>
       </c>
       <c r="T23" t="n">
         <v>133.6992167127163</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>77.13655079845226</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>83.31186613690066</v>
       </c>
       <c r="D24" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>68.24844760398587</v>
+        <v>50.64864178564668</v>
       </c>
       <c r="F24" t="n">
         <v>55.6725795419688</v>
@@ -2414,7 +2414,7 @@
         <v>47.94688431179556</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>8.305031560504291</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>110.7680958434065</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>136.5447492295597</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W24" t="n">
         <v>162.2983503095045</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y24" t="n">
         <v>116.2860629258893</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>38.88738996613561</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>134.6199651855572</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>138.5489565768664</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>196.9223965050758</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>162.7410104724129</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>4.737086255147832</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V26" t="n">
-        <v>212.285385643442</v>
+        <v>97.49054808606662</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2636,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D27" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>68.24844760398587</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H27" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>143.4039542980102</v>
       </c>
       <c r="W27" t="n">
-        <v>162.2983503095045</v>
+        <v>135.6801629470475</v>
       </c>
       <c r="X27" t="n">
         <v>116.3763523520624</v>
       </c>
       <c r="Y27" t="n">
-        <v>23.75331898793413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>90.43534733052222</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>23.89728517360638</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U28" t="n">
-        <v>196.9223965050758</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W28" t="n">
         <v>197.1263654851759</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y28" t="n">
-        <v>129.1880205006797</v>
+        <v>2.840059922982693</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>32.18946381887719</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>60.4724850897346</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>78.58616893072569</v>
       </c>
     </row>
     <row r="30">
@@ -2870,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>77.13655079845226</v>
+        <v>8.656063452540227</v>
       </c>
       <c r="C30" t="n">
-        <v>83.31186613690066</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>23.89855932189801</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H30" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>10.76120130122806</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T30" t="n">
         <v>110.7680958434065</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V30" t="n">
         <v>143.4039542980102</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>59.21884016679728</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>35.73828599708497</v>
       </c>
       <c r="U31" t="n">
-        <v>185.9823467665639</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>98.41700050848698</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3113,7 +3113,7 @@
         <v>60.47305475181928</v>
       </c>
       <c r="D33" t="n">
-        <v>34.22163022015156</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E33" t="n">
         <v>45.40963621890448</v>
@@ -3122,7 +3122,7 @@
         <v>32.83376815688742</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>59.44772686734136</v>
       </c>
       <c r="T33" t="n">
-        <v>87.92928445832514</v>
+        <v>61.83322042362008</v>
       </c>
       <c r="U33" t="n">
         <v>113.7059378444784</v>
@@ -3189,22 +3189,22 @@
         <v>67.59653594544083</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F34" t="n">
         <v>33.18560378643478</v>
       </c>
       <c r="G34" t="n">
-        <v>9.082609742197826</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I34" t="n">
         <v>43.21503069076182</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>84.60620446575599</v>
       </c>
       <c r="U34" t="n">
-        <v>174.0835851199944</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>139.9021990873316</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>174.2875541000946</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3492091155983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>129.462556565913</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>49.71128378850655</v>
       </c>
       <c r="S35" t="n">
-        <v>108.8622354336022</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>122.9380154114882</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>151.1878187551933</v>
       </c>
       <c r="V35" t="n">
-        <v>53.71186642133326</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>66.37534949722421</v>
+        <v>54.80258586579899</v>
       </c>
       <c r="C36" t="n">
-        <v>3.151607555352611</v>
+        <v>72.55066483567261</v>
       </c>
       <c r="D36" t="n">
         <v>47.28723141199562</v>
@@ -3362,7 +3362,7 @@
         <v>37.1856830105675</v>
       </c>
       <c r="H36" t="n">
-        <v>12.07761008385333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>71.52533695119469</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>100.0068945421785</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>125.7835479283317</v>
       </c>
       <c r="V36" t="n">
         <v>132.6427529967821</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>42.87393061643808</v>
+        <v>67.0889869459847</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>46.27612849392604</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>67.83314520581563</v>
+        <v>67.68242385698268</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>62.06933835479644</v>
       </c>
       <c r="I37" t="n">
         <v>55.29264077461515</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>77.13555722452635</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>123.8587638843291</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>127.7877552756384</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>186.1611952038477</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>151.9798091711849</v>
       </c>
       <c r="W37" t="n">
-        <v>186.3651641839479</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>118.4268191994517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>215.3939976830282</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>215.3939976830282</v>
+        <v>215.51426123252</v>
       </c>
       <c r="F38" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>83.74591325987842</v>
+        <v>82.27934083279976</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>155.5060724557814</v>
       </c>
       <c r="U38" t="n">
-        <v>105.9731198993329</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>98.94340654151742</v>
       </c>
       <c r="C39" t="n">
-        <v>39.63305390997799</v>
+        <v>105.1187218799658</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>91.52187577412968</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>77.47943528503396</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>46.1122395552252</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>8.026148834677675</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.03462947137187</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>159.8181773997036</v>
+        <v>158.3516049726249</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>165.2108100410753</v>
       </c>
       <c r="W39" t="n">
-        <v>185.5717784796483</v>
+        <v>184.1052060525697</v>
       </c>
       <c r="X39" t="n">
-        <v>139.6497805222062</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>139.5594910960331</v>
+        <v>138.0929186689544</v>
       </c>
     </row>
     <row r="40">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>113.708775500666</v>
+        <v>112.2422030735874</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>77.83127091458132</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.03883857042312</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>161.8223847470102</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>42.38102250516086</v>
+        <v>165.0934476137913</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>159.5864507077659</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>150.9948762437449</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>147.4172063689195</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>36.10846289532109</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>127.8876680883669</v>
       </c>
       <c r="F41" t="n">
-        <v>147.4172063689195</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>147.4172063689195</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>93.73661247442323</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3821,19 +3821,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>115.1094210945106</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>101.5125749886745</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>28.33250038106973</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>114.0840932100327</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>142.5656508010165</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="V42" t="n">
-        <v>147.4172063689195</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>147.4172063689195</v>
+        <v>46.51830336511172</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>147.4172063689195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>123.6994747152108</v>
+        <v>122.2329022881322</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>109.6477432048227</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,16 +3912,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>20.25227877692418</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.85139703345317</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>35.76010222286766</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>81.91834729537705</v>
       </c>
       <c r="S43" t="n">
-        <v>147.4172063689195</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>147.4172063689195</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>126.8936236865379</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>126.8936236865379</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>126.8936236865379</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>113.7253110244798</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>19.49786369575802</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>92.27004004734457</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>129.115929864305</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>129.115929864305</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>129.115929864305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>110.4006781831409</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>116.5759935215893</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>91.3125600979123</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>101.5125749886745</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>81.21101169648418</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.06028212959370028</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>31.79755495760996</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4112,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>79.97034878549253</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>126.8936236865379</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>126.8936236865379</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>126.8936236865379</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>109.6477432048227</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>88.83488475276405</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>104.257599864424</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>106.0946670407131</v>
+        <v>104.6280946136345</v>
       </c>
       <c r="I46" t="n">
-        <v>99.31796946053183</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>129.115929864305</v>
+        <v>17.40614578689368</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>126.8936236865379</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>92.0896901594397</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>92.0896901594397</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>92.0896901594397</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>66.21060814466108</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>40.33152612988246</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>14.45244411510385</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>78.14188814362404</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>374.3883300349584</v>
+        <v>189.7030321470235</v>
       </c>
       <c r="C17" t="n">
-        <v>374.3883300349584</v>
+        <v>92.91577084752169</v>
       </c>
       <c r="D17" t="n">
-        <v>374.3883300349584</v>
+        <v>92.91577084752169</v>
       </c>
       <c r="E17" t="n">
-        <v>374.3883300349584</v>
+        <v>92.91577084752169</v>
       </c>
       <c r="F17" t="n">
-        <v>279.8458224503729</v>
+        <v>92.91577084752169</v>
       </c>
       <c r="G17" t="n">
-        <v>185.3033148657875</v>
+        <v>92.91577084752169</v>
       </c>
       <c r="H17" t="n">
-        <v>90.76080728120201</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="I17" t="n">
-        <v>7.487766600699167</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="J17" t="n">
-        <v>7.487766600699167</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="K17" t="n">
-        <v>100.1488782843514</v>
+        <v>9.033915055051011</v>
       </c>
       <c r="L17" t="n">
-        <v>100.1488782843514</v>
+        <v>9.033915055051011</v>
       </c>
       <c r="M17" t="n">
-        <v>100.1488782843514</v>
+        <v>103.8951098546927</v>
       </c>
       <c r="N17" t="n">
-        <v>192.8099899680035</v>
+        <v>198.7563046543344</v>
       </c>
       <c r="O17" t="n">
-        <v>285.4711016516558</v>
+        <v>293.6174994539761</v>
       </c>
       <c r="P17" t="n">
-        <v>374.3883300349584</v>
+        <v>383.277554746027</v>
       </c>
       <c r="Q17" t="n">
-        <v>374.3883300349584</v>
+        <v>383.277554746027</v>
       </c>
       <c r="R17" t="n">
-        <v>374.3883300349584</v>
+        <v>383.277554746027</v>
       </c>
       <c r="S17" t="n">
-        <v>374.3883300349584</v>
+        <v>383.277554746027</v>
       </c>
       <c r="T17" t="n">
-        <v>374.3883300349584</v>
+        <v>383.277554746027</v>
       </c>
       <c r="U17" t="n">
-        <v>374.3883300349584</v>
+        <v>383.277554746027</v>
       </c>
       <c r="V17" t="n">
-        <v>374.3883300349584</v>
+        <v>286.4902934465252</v>
       </c>
       <c r="W17" t="n">
-        <v>374.3883300349584</v>
+        <v>286.4902934465252</v>
       </c>
       <c r="X17" t="n">
-        <v>374.3883300349584</v>
+        <v>286.4902934465252</v>
       </c>
       <c r="Y17" t="n">
-        <v>374.3883300349584</v>
+        <v>189.7030321470235</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>360.7628155567854</v>
+        <v>104.4528123944223</v>
       </c>
       <c r="C18" t="n">
-        <v>360.7628155567854</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="D18" t="n">
-        <v>266.2203079722</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="E18" t="n">
-        <v>171.6778003876145</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="F18" t="n">
-        <v>77.13529280302905</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="G18" t="n">
-        <v>77.13529280302905</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="H18" t="n">
-        <v>7.487766600699167</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="I18" t="n">
-        <v>7.487766600699167</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="J18" t="n">
-        <v>7.487766600699167</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="K18" t="n">
-        <v>7.487766600699167</v>
+        <v>102.5267458945622</v>
       </c>
       <c r="L18" t="n">
-        <v>27.01043647067249</v>
+        <v>197.3879406942039</v>
       </c>
       <c r="M18" t="n">
-        <v>27.01043647067249</v>
+        <v>292.2491354938456</v>
       </c>
       <c r="N18" t="n">
-        <v>119.6715481543247</v>
+        <v>383.277554746027</v>
       </c>
       <c r="O18" t="n">
-        <v>212.3326598379769</v>
+        <v>383.277554746027</v>
       </c>
       <c r="P18" t="n">
-        <v>304.9937715216291</v>
+        <v>383.277554746027</v>
       </c>
       <c r="Q18" t="n">
-        <v>374.3883300349584</v>
+        <v>383.277554746027</v>
       </c>
       <c r="R18" t="n">
-        <v>360.7628155567854</v>
+        <v>383.277554746027</v>
       </c>
       <c r="S18" t="n">
-        <v>360.7628155567854</v>
+        <v>383.277554746027</v>
       </c>
       <c r="T18" t="n">
-        <v>360.7628155567854</v>
+        <v>383.277554746027</v>
       </c>
       <c r="U18" t="n">
-        <v>360.7628155567854</v>
+        <v>383.277554746027</v>
       </c>
       <c r="V18" t="n">
-        <v>360.7628155567854</v>
+        <v>383.277554746027</v>
       </c>
       <c r="W18" t="n">
-        <v>360.7628155567854</v>
+        <v>383.277554746027</v>
       </c>
       <c r="X18" t="n">
-        <v>360.7628155567854</v>
+        <v>286.4902934465252</v>
       </c>
       <c r="Y18" t="n">
-        <v>360.7628155567854</v>
+        <v>201.2400736939241</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.1533745178326</v>
+        <v>104.4528123944223</v>
       </c>
       <c r="C19" t="n">
-        <v>247.1533745178326</v>
+        <v>104.4528123944223</v>
       </c>
       <c r="D19" t="n">
-        <v>247.1533745178326</v>
+        <v>104.4528123944223</v>
       </c>
       <c r="E19" t="n">
-        <v>247.1533745178326</v>
+        <v>104.4528123944223</v>
       </c>
       <c r="F19" t="n">
-        <v>247.1533745178326</v>
+        <v>104.4528123944223</v>
       </c>
       <c r="G19" t="n">
-        <v>247.1533745178326</v>
+        <v>104.4528123944223</v>
       </c>
       <c r="H19" t="n">
-        <v>152.6108669332471</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="I19" t="n">
-        <v>58.06835934866169</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="J19" t="n">
-        <v>7.487766600699167</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="K19" t="n">
-        <v>28.29251905630315</v>
+        <v>29.92221025333242</v>
       </c>
       <c r="L19" t="n">
-        <v>98.45819342724411</v>
+        <v>101.5397913270813</v>
       </c>
       <c r="M19" t="n">
-        <v>180.4977809826943</v>
+        <v>185.0312855853393</v>
       </c>
       <c r="N19" t="n">
-        <v>267.0401810013586</v>
+        <v>273.0255923068115</v>
       </c>
       <c r="O19" t="n">
-        <v>334.2310069994858</v>
+        <v>341.6683250077466</v>
       </c>
       <c r="P19" t="n">
-        <v>374.3883300349584</v>
+        <v>383.277554746027</v>
       </c>
       <c r="Q19" t="n">
-        <v>374.3883300349584</v>
+        <v>383.277554746027</v>
       </c>
       <c r="R19" t="n">
-        <v>374.3883300349584</v>
+        <v>383.277554746027</v>
       </c>
       <c r="S19" t="n">
-        <v>374.3883300349584</v>
+        <v>286.4902934465252</v>
       </c>
       <c r="T19" t="n">
-        <v>374.3883300349584</v>
+        <v>189.7030321470235</v>
       </c>
       <c r="U19" t="n">
-        <v>341.6958821024181</v>
+        <v>189.7030321470235</v>
       </c>
       <c r="V19" t="n">
-        <v>341.6958821024181</v>
+        <v>189.7030321470235</v>
       </c>
       <c r="W19" t="n">
-        <v>341.6958821024181</v>
+        <v>189.7030321470235</v>
       </c>
       <c r="X19" t="n">
-        <v>341.6958821024181</v>
+        <v>189.7030321470235</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.1533745178326</v>
+        <v>104.4528123944223</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>235.0091596571372</v>
+        <v>456.4826607644849</v>
       </c>
       <c r="C20" t="n">
-        <v>121.9805141891027</v>
+        <v>456.4826607644849</v>
       </c>
       <c r="D20" t="n">
-        <v>121.9805141891027</v>
+        <v>354.949850764142</v>
       </c>
       <c r="E20" t="n">
-        <v>8.951868721068326</v>
+        <v>239.6764515811912</v>
       </c>
       <c r="F20" t="n">
-        <v>8.951868721068326</v>
+        <v>124.4030523982404</v>
       </c>
       <c r="G20" t="n">
-        <v>8.951868721068326</v>
+        <v>124.4030523982404</v>
       </c>
       <c r="H20" t="n">
-        <v>8.951868721068326</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="I20" t="n">
-        <v>8.951868721068326</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="J20" t="n">
-        <v>8.951868721068326</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="K20" t="n">
-        <v>111.9668746319907</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="L20" t="n">
-        <v>222.7462500552112</v>
+        <v>27.88422985480392</v>
       </c>
       <c r="M20" t="n">
-        <v>333.5256254784318</v>
+        <v>140.8636883940139</v>
       </c>
       <c r="N20" t="n">
-        <v>444.3050009016523</v>
+        <v>253.8431469332239</v>
       </c>
       <c r="O20" t="n">
-        <v>444.3050009016523</v>
+        <v>366.822605472434</v>
       </c>
       <c r="P20" t="n">
-        <v>447.5934360534163</v>
+        <v>456.4826607644849</v>
       </c>
       <c r="Q20" t="n">
-        <v>447.5934360534163</v>
+        <v>456.4826607644849</v>
       </c>
       <c r="R20" t="n">
-        <v>447.5934360534163</v>
+        <v>456.4826607644849</v>
       </c>
       <c r="S20" t="n">
-        <v>447.5934360534163</v>
+        <v>456.4826607644849</v>
       </c>
       <c r="T20" t="n">
-        <v>447.5934360534163</v>
+        <v>456.4826607644849</v>
       </c>
       <c r="U20" t="n">
-        <v>447.5934360534163</v>
+        <v>456.4826607644849</v>
       </c>
       <c r="V20" t="n">
-        <v>447.5934360534163</v>
+        <v>456.4826607644849</v>
       </c>
       <c r="W20" t="n">
-        <v>447.5934360534163</v>
+        <v>456.4826607644849</v>
       </c>
       <c r="X20" t="n">
-        <v>348.0378051251716</v>
+        <v>456.4826607644849</v>
       </c>
       <c r="Y20" t="n">
-        <v>348.0378051251716</v>
+        <v>456.4826607644849</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>108.507499649313</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="C21" t="n">
-        <v>66.39978877809182</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="D21" t="n">
-        <v>66.39978877809182</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="E21" t="n">
-        <v>66.39978877809182</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="F21" t="n">
-        <v>66.39978877809182</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="G21" t="n">
-        <v>66.39978877809182</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="H21" t="n">
-        <v>8.951868721068326</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="I21" t="n">
-        <v>8.951868721068326</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="J21" t="n">
-        <v>8.951868721068326</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="K21" t="n">
-        <v>8.951868721068326</v>
+        <v>122.1091117544997</v>
       </c>
       <c r="L21" t="n">
-        <v>8.951868721068326</v>
+        <v>235.0885702937097</v>
       </c>
       <c r="M21" t="n">
-        <v>45.86075127042544</v>
+        <v>348.0680288329197</v>
       </c>
       <c r="N21" t="n">
-        <v>156.640126693646</v>
+        <v>387.0881022511556</v>
       </c>
       <c r="O21" t="n">
-        <v>267.4195021168665</v>
+        <v>387.0881022511556</v>
       </c>
       <c r="P21" t="n">
-        <v>378.198877540087</v>
+        <v>387.0881022511556</v>
       </c>
       <c r="Q21" t="n">
-        <v>447.5934360534163</v>
+        <v>456.4826607644849</v>
       </c>
       <c r="R21" t="n">
-        <v>447.5934360534163</v>
+        <v>412.7157331427463</v>
       </c>
       <c r="S21" t="n">
-        <v>334.5647905853819</v>
+        <v>297.4423339597955</v>
       </c>
       <c r="T21" t="n">
-        <v>221.5361451173475</v>
+        <v>239.6764515811912</v>
       </c>
       <c r="U21" t="n">
-        <v>108.507499649313</v>
+        <v>124.4030523982404</v>
       </c>
       <c r="V21" t="n">
-        <v>108.507499649313</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="W21" t="n">
-        <v>108.507499649313</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="X21" t="n">
-        <v>108.507499649313</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="Y21" t="n">
-        <v>108.507499649313</v>
+        <v>9.129653215289698</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>447.5934360534163</v>
+        <v>225.9358623985834</v>
       </c>
       <c r="C22" t="n">
-        <v>369.4055822812654</v>
+        <v>225.9358623985834</v>
       </c>
       <c r="D22" t="n">
-        <v>369.4055822812654</v>
+        <v>225.9358623985834</v>
       </c>
       <c r="E22" t="n">
-        <v>369.4055822812654</v>
+        <v>135.4253706415659</v>
       </c>
       <c r="F22" t="n">
-        <v>369.4055822812654</v>
+        <v>135.4253706415659</v>
       </c>
       <c r="G22" t="n">
-        <v>256.376936813231</v>
+        <v>23.14011452910442</v>
       </c>
       <c r="H22" t="n">
-        <v>148.4323215330326</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="I22" t="n">
-        <v>47.33285532372446</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="J22" t="n">
-        <v>8.951868721068326</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="K22" t="n">
-        <v>41.7134551596871</v>
+        <v>43.34314635671637</v>
       </c>
       <c r="L22" t="n">
-        <v>123.8359635136429</v>
+        <v>126.91756141348</v>
       </c>
       <c r="M22" t="n">
-        <v>217.8323850521078</v>
+        <v>222.3658896547529</v>
       </c>
       <c r="N22" t="n">
-        <v>316.3316190537869</v>
+        <v>322.3170303592398</v>
       </c>
       <c r="O22" t="n">
-        <v>395.479279034929</v>
+        <v>402.9165970431897</v>
       </c>
       <c r="P22" t="n">
-        <v>447.5934360534163</v>
+        <v>456.4826607644849</v>
       </c>
       <c r="Q22" t="n">
-        <v>447.5934360534163</v>
+        <v>456.4826607644849</v>
       </c>
       <c r="R22" t="n">
-        <v>447.5934360534163</v>
+        <v>456.4826607644849</v>
       </c>
       <c r="S22" t="n">
-        <v>447.5934360534163</v>
+        <v>456.4826607644849</v>
       </c>
       <c r="T22" t="n">
-        <v>447.5934360534163</v>
+        <v>341.2092615815342</v>
       </c>
       <c r="U22" t="n">
-        <v>447.5934360534163</v>
+        <v>341.2092615815342</v>
       </c>
       <c r="V22" t="n">
-        <v>447.5934360534163</v>
+        <v>341.2092615815342</v>
       </c>
       <c r="W22" t="n">
-        <v>447.5934360534163</v>
+        <v>341.2092615815342</v>
       </c>
       <c r="X22" t="n">
-        <v>447.5934360534163</v>
+        <v>341.2092615815342</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.5934360534163</v>
+        <v>225.9358623985834</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>464.7269107377012</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C23" t="n">
-        <v>464.7269107377012</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D23" t="n">
-        <v>464.7269107377012</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E23" t="n">
-        <v>464.7269107377012</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>464.7269107377012</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>221.2781340936011</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>141.5834226243449</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>902.973837238177</v>
       </c>
       <c r="S23" t="n">
-        <v>843.2254012330299</v>
+        <v>884.6771868937416</v>
       </c>
       <c r="T23" t="n">
-        <v>708.1756873818013</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>708.1756873818013</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>708.1756873818013</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>708.1756873818013</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>464.7269107377012</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>464.7269107377012</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>335.6732747343285</v>
+        <v>282.3304190308118</v>
       </c>
       <c r="C24" t="n">
-        <v>251.519874596045</v>
+        <v>198.1770188925283</v>
       </c>
       <c r="D24" t="n">
-        <v>192.8850940776372</v>
+        <v>198.1770188925283</v>
       </c>
       <c r="E24" t="n">
-        <v>123.9472682150252</v>
+        <v>147.0167746646024</v>
       </c>
       <c r="F24" t="n">
-        <v>67.7123393847537</v>
+        <v>90.78184583433085</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>42.35064955978989</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>953.1872552063654</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>944.7983344381793</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>832.9113689397889</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>694.9873798190215</v>
+        <v>826.1331663898688</v>
       </c>
       <c r="V24" t="n">
-        <v>694.9873798190215</v>
+        <v>681.2806873009697</v>
       </c>
       <c r="W24" t="n">
-        <v>531.0496522336633</v>
+        <v>517.3429597156115</v>
       </c>
       <c r="X24" t="n">
-        <v>531.0496522336633</v>
+        <v>399.7910886529222</v>
       </c>
       <c r="Y24" t="n">
-        <v>413.588982611553</v>
+        <v>282.3304190308118</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>320.0476454146158</v>
+        <v>424.8929204271304</v>
       </c>
       <c r="C25" t="n">
-        <v>320.0476454146158</v>
+        <v>346.256366642067</v>
       </c>
       <c r="D25" t="n">
-        <v>320.0476454146158</v>
+        <v>286.4393563725748</v>
       </c>
       <c r="E25" t="n">
-        <v>320.0476454146158</v>
+        <v>228.8258919330252</v>
       </c>
       <c r="F25" t="n">
-        <v>320.0476454146158</v>
+        <v>172.2355735779584</v>
       </c>
       <c r="G25" t="n">
-        <v>320.0476454146158</v>
+        <v>92.84734478296475</v>
       </c>
       <c r="H25" t="n">
-        <v>320.0476454146158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>320.0476454146158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>320.0476454146158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>386.5035150298927</v>
+        <v>85.73701272548962</v>
       </c>
       <c r="L25" t="n">
-        <v>502.3203065605066</v>
+        <v>201.5538042561035</v>
       </c>
       <c r="M25" t="n">
-        <v>630.0110112756297</v>
+        <v>329.2445089712266</v>
       </c>
       <c r="N25" t="n">
-        <v>762.204528453967</v>
+        <v>461.4380261495638</v>
       </c>
       <c r="O25" t="n">
-        <v>875.0464716117672</v>
+        <v>574.279969307364</v>
       </c>
       <c r="P25" t="n">
-        <v>960.8549118069127</v>
+        <v>660.0884095025095</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="S25" t="n">
-        <v>828.0773926969421</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="T25" t="n">
-        <v>688.1289517102083</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="U25" t="n">
-        <v>489.2174400889196</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="V25" t="n">
-        <v>324.8325810258762</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="W25" t="n">
-        <v>320.0476454146158</v>
+        <v>464.1731123121159</v>
       </c>
       <c r="X25" t="n">
-        <v>320.0476454146158</v>
+        <v>464.1731123121159</v>
       </c>
       <c r="Y25" t="n">
-        <v>320.0476454146158</v>
+        <v>464.1731123121159</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>749.627473042513</v>
+        <v>385.032199268445</v>
       </c>
       <c r="C26" t="n">
-        <v>749.627473042513</v>
+        <v>141.5834226243449</v>
       </c>
       <c r="D26" t="n">
-        <v>749.627473042513</v>
+        <v>141.5834226243449</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>141.5834226243449</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>141.5834226243449</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>141.5834226243449</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>141.5834226243449</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>902.973837238177</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>782.1420829605706</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>647.092369109342</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>483.507500365482</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>385.032199268445</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>385.032199268445</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>385.032199268445</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>385.032199268445</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>169.9232559408096</v>
+        <v>220.8035653856492</v>
       </c>
       <c r="C27" t="n">
-        <v>169.9232559408096</v>
+        <v>136.6501652473657</v>
       </c>
       <c r="D27" t="n">
-        <v>111.2884754224019</v>
+        <v>136.6501652473657</v>
       </c>
       <c r="E27" t="n">
-        <v>42.35064955978989</v>
+        <v>67.7123393847537</v>
       </c>
       <c r="F27" t="n">
-        <v>42.35064955978989</v>
+        <v>67.7123393847537</v>
       </c>
       <c r="G27" t="n">
-        <v>42.35064955978989</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6311,16 +6311,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6344,13 +6344,13 @@
         <v>475.4061060918208</v>
       </c>
       <c r="W27" t="n">
-        <v>311.4683785064627</v>
+        <v>338.3554364483385</v>
       </c>
       <c r="X27" t="n">
-        <v>193.9165074437734</v>
+        <v>220.8035653856492</v>
       </c>
       <c r="Y27" t="n">
-        <v>169.9232559408096</v>
+        <v>220.8035653856492</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>43.41981500274443</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>43.41981500274443</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>43.41981500274443</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>43.41981500274443</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>43.41981500274443</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>43.41981500274443</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6414,22 +6414,22 @@
         <v>663.2906532062331</v>
       </c>
       <c r="T28" t="n">
-        <v>663.2906532062331</v>
+        <v>523.3422122194993</v>
       </c>
       <c r="U28" t="n">
-        <v>464.3791415849444</v>
+        <v>523.3422122194993</v>
       </c>
       <c r="V28" t="n">
-        <v>464.3791415849444</v>
+        <v>358.9573531564559</v>
       </c>
       <c r="W28" t="n">
-        <v>265.2616006908272</v>
+        <v>159.8398122623388</v>
       </c>
       <c r="X28" t="n">
-        <v>265.2616006908272</v>
+        <v>22.14989050716494</v>
       </c>
       <c r="Y28" t="n">
-        <v>134.7686506901406</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>538.6933063164706</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>902.973837238177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>782.1420829605706</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>782.1420829605706</v>
+        <v>829.0074416594076</v>
       </c>
       <c r="U29" t="n">
-        <v>782.1420829605706</v>
+        <v>829.0074416594076</v>
       </c>
       <c r="V29" t="n">
-        <v>782.1420829605706</v>
+        <v>829.0074416594076</v>
       </c>
       <c r="W29" t="n">
-        <v>782.1420829605706</v>
+        <v>829.0074416594076</v>
       </c>
       <c r="X29" t="n">
-        <v>538.6933063164706</v>
+        <v>829.0074416594076</v>
       </c>
       <c r="Y29" t="n">
-        <v>538.6933063164706</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>219.5818344716935</v>
+        <v>67.7123393847537</v>
       </c>
       <c r="C30" t="n">
-        <v>135.42843433341</v>
+        <v>67.7123393847537</v>
       </c>
       <c r="D30" t="n">
-        <v>135.42843433341</v>
+        <v>67.7123393847537</v>
       </c>
       <c r="E30" t="n">
-        <v>66.49060847079798</v>
+        <v>67.7123393847537</v>
       </c>
       <c r="F30" t="n">
-        <v>66.49060847079798</v>
+        <v>67.7123393847537</v>
       </c>
       <c r="G30" t="n">
-        <v>42.35064955978989</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6545,16 +6545,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6569,25 +6569,25 @@
         <v>953.1872552063654</v>
       </c>
       <c r="S30" t="n">
-        <v>953.1872552063654</v>
+        <v>870.0695397998778</v>
       </c>
       <c r="T30" t="n">
-        <v>841.300289707975</v>
+        <v>758.1825743014874</v>
       </c>
       <c r="U30" t="n">
-        <v>841.300289707975</v>
+        <v>620.25858518072</v>
       </c>
       <c r="V30" t="n">
-        <v>696.4478106190759</v>
+        <v>475.4061060918208</v>
       </c>
       <c r="W30" t="n">
-        <v>532.5100830337177</v>
+        <v>311.4683785064627</v>
       </c>
       <c r="X30" t="n">
-        <v>414.9582119710284</v>
+        <v>193.9165074437734</v>
       </c>
       <c r="Y30" t="n">
-        <v>297.497542348918</v>
+        <v>76.45583782166302</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>145.8192059815668</v>
+        <v>98.66937190520635</v>
       </c>
       <c r="C31" t="n">
-        <v>145.8192059815668</v>
+        <v>98.66937190520635</v>
       </c>
       <c r="D31" t="n">
-        <v>86.00219571207455</v>
+        <v>98.66937190520635</v>
       </c>
       <c r="E31" t="n">
-        <v>86.00219571207455</v>
+        <v>98.66937190520635</v>
       </c>
       <c r="F31" t="n">
-        <v>86.00219571207455</v>
+        <v>98.66937190520635</v>
       </c>
       <c r="G31" t="n">
-        <v>86.00219571207455</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>86.00219571207455</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
         <v>19.28114311021272</v>
@@ -6651,22 +6651,22 @@
         <v>663.2906532062331</v>
       </c>
       <c r="T31" t="n">
-        <v>663.2906532062331</v>
+        <v>627.1913744212987</v>
       </c>
       <c r="U31" t="n">
-        <v>475.4296968763705</v>
+        <v>428.2798628000101</v>
       </c>
       <c r="V31" t="n">
-        <v>475.4296968763705</v>
+        <v>428.2798628000101</v>
       </c>
       <c r="W31" t="n">
-        <v>276.3121559822533</v>
+        <v>229.162321905893</v>
       </c>
       <c r="X31" t="n">
-        <v>276.3121559822533</v>
+        <v>229.162321905893</v>
       </c>
       <c r="Y31" t="n">
-        <v>145.8192059815668</v>
+        <v>98.66937190520635</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>926.0433436877541</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>828.2810958597249</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>716.3008884580735</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>575.7855261637906</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>358.0917744126406</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>118.6922547349471</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.9660818453266</v>
+        <v>220.3257424864427</v>
       </c>
       <c r="C33" t="n">
-        <v>132.8821881566203</v>
+        <v>159.2418487977363</v>
       </c>
       <c r="D33" t="n">
-        <v>98.31488490394192</v>
+        <v>123.6765747289057</v>
       </c>
       <c r="E33" t="n">
-        <v>52.44656549090708</v>
+        <v>77.80825531587089</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>44.64283293517654</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6791,13 +6791,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6809,22 +6809,22 @@
         <v>904.0089465537258</v>
       </c>
       <c r="T33" t="n">
-        <v>815.1914875049125</v>
+        <v>841.5511481460287</v>
       </c>
       <c r="U33" t="n">
-        <v>700.3370048337223</v>
+        <v>726.6966654748385</v>
       </c>
       <c r="V33" t="n">
-        <v>578.5540321944003</v>
+        <v>604.9136928355165</v>
       </c>
       <c r="W33" t="n">
-        <v>437.6858110586193</v>
+        <v>464.0454716997355</v>
       </c>
       <c r="X33" t="n">
-        <v>343.2034464455072</v>
+        <v>369.5631070866233</v>
       </c>
       <c r="Y33" t="n">
-        <v>248.812283272974</v>
+        <v>275.17194391409</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.6278544429344</v>
+        <v>330.1274278819521</v>
       </c>
       <c r="C34" t="n">
-        <v>105.6278544429344</v>
+        <v>274.5603805464659</v>
       </c>
       <c r="D34" t="n">
-        <v>105.6278544429344</v>
+        <v>237.8128767265509</v>
       </c>
       <c r="E34" t="n">
-        <v>105.6278544429344</v>
+        <v>203.2689187365784</v>
       </c>
       <c r="F34" t="n">
-        <v>72.1070425374447</v>
+        <v>169.7481068310887</v>
       </c>
       <c r="G34" t="n">
-        <v>62.9326892624974</v>
+        <v>113.4293844856723</v>
       </c>
       <c r="H34" t="n">
         <v>62.9326892624974</v>
@@ -6888,22 +6888,22 @@
         <v>774.5360194615805</v>
       </c>
       <c r="T34" t="n">
-        <v>774.5360194615805</v>
+        <v>689.0752068699078</v>
       </c>
       <c r="U34" t="n">
-        <v>598.694014289869</v>
+        <v>689.0752068699078</v>
       </c>
       <c r="V34" t="n">
-        <v>457.3786616764028</v>
+        <v>689.0752068699078</v>
       </c>
       <c r="W34" t="n">
-        <v>281.3306272318628</v>
+        <v>513.0271724253678</v>
       </c>
       <c r="X34" t="n">
-        <v>281.3306272318628</v>
+        <v>398.4067571197712</v>
       </c>
       <c r="Y34" t="n">
-        <v>173.9071836807534</v>
+        <v>398.4067571197712</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>393.5001789118007</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>150.0514022677006</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>150.0514022677006</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6964,25 +6964,25 @@
         <v>913.8437375424478</v>
       </c>
       <c r="S35" t="n">
-        <v>803.8818835691122</v>
+        <v>913.8437375424478</v>
       </c>
       <c r="T35" t="n">
-        <v>803.8818835691122</v>
+        <v>789.66392399549</v>
       </c>
       <c r="U35" t="n">
-        <v>803.8818835691122</v>
+        <v>636.9489555559007</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>636.9489555559007</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>393.5001789118007</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>393.5001789118007</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>393.5001789118007</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>223.423321499372</v>
+        <v>281.3237732129746</v>
       </c>
       <c r="C36" t="n">
-        <v>220.2398795242683</v>
+        <v>208.0402733789619</v>
       </c>
       <c r="D36" t="n">
-        <v>172.4749993101313</v>
+        <v>160.2753931648249</v>
       </c>
       <c r="E36" t="n">
-        <v>114.4070737517901</v>
+        <v>102.2074676064837</v>
       </c>
       <c r="F36" t="n">
-        <v>69.04204522578932</v>
+        <v>56.84243908048293</v>
       </c>
       <c r="G36" t="n">
-        <v>31.48074925551912</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7019,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>891.8093404084193</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>790.7922752142996</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>790.7922752142996</v>
+        <v>837.0030666941395</v>
       </c>
       <c r="V36" t="n">
-        <v>656.8096964296712</v>
+        <v>703.0204879095111</v>
       </c>
       <c r="W36" t="n">
-        <v>503.7418691485839</v>
+        <v>549.9526606284237</v>
       </c>
       <c r="X36" t="n">
-        <v>397.0598983901654</v>
+        <v>443.2706898700052</v>
       </c>
       <c r="Y36" t="n">
-        <v>290.4691290723257</v>
+        <v>336.6799205521655</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>233.7011886564702</v>
+        <v>273.9613349611006</v>
       </c>
       <c r="C37" t="n">
-        <v>190.3941880338055</v>
+        <v>206.194681480308</v>
       </c>
       <c r="D37" t="n">
-        <v>190.3941880338055</v>
+        <v>206.194681480308</v>
       </c>
       <c r="E37" t="n">
-        <v>143.6506238985266</v>
+        <v>206.194681480308</v>
       </c>
       <c r="F37" t="n">
-        <v>143.6506238985266</v>
+        <v>206.194681480308</v>
       </c>
       <c r="G37" t="n">
-        <v>75.13229540780378</v>
+        <v>137.8285967762851</v>
       </c>
       <c r="H37" t="n">
         <v>75.13229540780378</v>
@@ -7119,28 +7119,28 @@
         <v>744.5964457193541</v>
       </c>
       <c r="R37" t="n">
-        <v>666.6817414521557</v>
+        <v>744.5964457193541</v>
       </c>
       <c r="S37" t="n">
-        <v>541.5718789427324</v>
+        <v>744.5964457193541</v>
       </c>
       <c r="T37" t="n">
-        <v>541.5718789427324</v>
+        <v>615.5179050368911</v>
       </c>
       <c r="U37" t="n">
-        <v>541.5718789427324</v>
+        <v>427.4762937198732</v>
       </c>
       <c r="V37" t="n">
-        <v>541.5718789427324</v>
+        <v>273.9613349611006</v>
       </c>
       <c r="W37" t="n">
-        <v>353.324238352886</v>
+        <v>273.9613349611006</v>
       </c>
       <c r="X37" t="n">
-        <v>353.324238352886</v>
+        <v>273.9613349611006</v>
       </c>
       <c r="Y37" t="n">
-        <v>233.7011886564702</v>
+        <v>273.9613349611006</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>669.9406037026066</v>
+        <v>723.8698693605543</v>
       </c>
       <c r="C38" t="n">
-        <v>669.9406037026066</v>
+        <v>480.4210927164542</v>
       </c>
       <c r="D38" t="n">
-        <v>452.3709090732851</v>
+        <v>236.9723160723541</v>
       </c>
       <c r="E38" t="n">
-        <v>234.8012144439637</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K38" t="n">
-        <v>120.2465257255646</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L38" t="n">
-        <v>300.3223773102232</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M38" t="n">
-        <v>416.8664630901746</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N38" t="n">
-        <v>622.7209852974139</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O38" t="n">
-        <v>771.915935440062</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P38" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>776.9841591564782</v>
+        <v>880.9467102249799</v>
       </c>
       <c r="S38" t="n">
-        <v>776.9841591564782</v>
+        <v>880.9467102249799</v>
       </c>
       <c r="T38" t="n">
-        <v>776.9841591564782</v>
+        <v>723.8698693605543</v>
       </c>
       <c r="U38" t="n">
-        <v>669.9406037026066</v>
+        <v>723.8698693605543</v>
       </c>
       <c r="V38" t="n">
-        <v>669.9406037026066</v>
+        <v>723.8698693605543</v>
       </c>
       <c r="W38" t="n">
-        <v>669.9406037026066</v>
+        <v>723.8698693605543</v>
       </c>
       <c r="X38" t="n">
-        <v>669.9406037026066</v>
+        <v>723.8698693605543</v>
       </c>
       <c r="Y38" t="n">
-        <v>669.9406037026066</v>
+        <v>723.8698693605543</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>196.2892665210391</v>
+        <v>211.830947150291</v>
       </c>
       <c r="C39" t="n">
-        <v>156.2558787331826</v>
+        <v>105.6504199988103</v>
       </c>
       <c r="D39" t="n">
-        <v>156.2558787331826</v>
+        <v>105.6504199988103</v>
       </c>
       <c r="E39" t="n">
-        <v>63.80953956739499</v>
+        <v>105.6504199988103</v>
       </c>
       <c r="F39" t="n">
-        <v>63.80953956739499</v>
+        <v>27.38836415534169</v>
       </c>
       <c r="G39" t="n">
-        <v>63.80953956739499</v>
+        <v>27.38836415534169</v>
       </c>
       <c r="H39" t="n">
-        <v>17.23151981464226</v>
+        <v>27.38836415534169</v>
       </c>
       <c r="I39" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>142.5890798724797</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>183.0578391930369</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>183.0578391930369</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>396.2978968992348</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>609.5379546054328</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>792.1814322187836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>827.1975771246666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>827.1975771246666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>827.1975771246666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>665.7650747007236</v>
+        <v>804.1060393766717</v>
       </c>
       <c r="V39" t="n">
-        <v>665.7650747007236</v>
+        <v>637.2264332745754</v>
       </c>
       <c r="W39" t="n">
-        <v>478.31883381219</v>
+        <v>451.2615786760201</v>
       </c>
       <c r="X39" t="n">
-        <v>337.2584494463251</v>
+        <v>451.2615786760201</v>
       </c>
       <c r="Y39" t="n">
-        <v>196.2892665210391</v>
+        <v>311.7737820407126</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.23151981464226</v>
+        <v>97.8985884784767</v>
       </c>
       <c r="C40" t="n">
-        <v>17.23151981464226</v>
+        <v>97.8985884784767</v>
       </c>
       <c r="D40" t="n">
-        <v>17.23151981464226</v>
+        <v>97.8985884784767</v>
       </c>
       <c r="E40" t="n">
-        <v>17.23151981464226</v>
+        <v>97.8985884784767</v>
       </c>
       <c r="F40" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>60.64669554147679</v>
+        <v>64.14822553985512</v>
       </c>
       <c r="L40" t="n">
-        <v>153.4227931836483</v>
+        <v>158.3762298848345</v>
       </c>
       <c r="M40" t="n">
-        <v>258.072804010329</v>
+        <v>264.4781474143231</v>
       </c>
       <c r="N40" t="n">
-        <v>367.2256273002239</v>
+        <v>375.0828774070259</v>
       </c>
       <c r="O40" t="n">
-        <v>457.0268765695817</v>
+        <v>466.3360333791916</v>
       </c>
       <c r="P40" t="n">
-        <v>519.7946228762848</v>
+        <v>530.5556863887025</v>
       </c>
       <c r="Q40" t="n">
-        <v>499.5533717950494</v>
+        <v>530.5556863887025</v>
       </c>
       <c r="R40" t="n">
-        <v>499.5533717950494</v>
+        <v>530.5556863887025</v>
       </c>
       <c r="S40" t="n">
-        <v>499.5533717950494</v>
+        <v>530.5556863887025</v>
       </c>
       <c r="T40" t="n">
-        <v>336.09641750514</v>
+        <v>530.5556863887025</v>
       </c>
       <c r="U40" t="n">
-        <v>293.2873038635634</v>
+        <v>363.7946281929537</v>
       </c>
       <c r="V40" t="n">
-        <v>293.2873038635634</v>
+        <v>363.7946281929537</v>
       </c>
       <c r="W40" t="n">
-        <v>293.2873038635634</v>
+        <v>363.7946281929537</v>
       </c>
       <c r="X40" t="n">
-        <v>132.088868805214</v>
+        <v>363.7946281929537</v>
       </c>
       <c r="Y40" t="n">
-        <v>132.088868805214</v>
+        <v>211.27455117907</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>346.0791094723015</v>
+        <v>434.1180854200109</v>
       </c>
       <c r="C41" t="n">
-        <v>346.0791094723015</v>
+        <v>434.1180854200109</v>
       </c>
       <c r="D41" t="n">
-        <v>309.6059146285428</v>
+        <v>287.4565700754126</v>
       </c>
       <c r="E41" t="n">
-        <v>309.6059146285428</v>
+        <v>158.2771073598905</v>
       </c>
       <c r="F41" t="n">
-        <v>160.6996455690282</v>
+        <v>158.2771073598905</v>
       </c>
       <c r="G41" t="n">
-        <v>11.79337650951356</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="H41" t="n">
-        <v>11.79337650951356</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="I41" t="n">
-        <v>11.79337650951356</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="J41" t="n">
-        <v>11.79337650951356</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="K41" t="n">
-        <v>114.8083824204359</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="L41" t="n">
-        <v>260.7514167256662</v>
+        <v>155.358543204533</v>
       </c>
       <c r="M41" t="n">
-        <v>406.6944510308965</v>
+        <v>293.2936983861276</v>
       </c>
       <c r="N41" t="n">
-        <v>552.6374853361268</v>
+        <v>437.0366495753684</v>
       </c>
       <c r="O41" t="n">
-        <v>589.668825475678</v>
+        <v>580.7796007646092</v>
       </c>
       <c r="P41" t="n">
-        <v>589.668825475678</v>
+        <v>580.7796007646092</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.668825475678</v>
+        <v>580.7796007646092</v>
       </c>
       <c r="R41" t="n">
-        <v>494.9853785318161</v>
+        <v>580.7796007646092</v>
       </c>
       <c r="S41" t="n">
-        <v>494.9853785318161</v>
+        <v>434.1180854200109</v>
       </c>
       <c r="T41" t="n">
-        <v>494.9853785318161</v>
+        <v>434.1180854200109</v>
       </c>
       <c r="U41" t="n">
-        <v>494.9853785318161</v>
+        <v>434.1180854200109</v>
       </c>
       <c r="V41" t="n">
-        <v>494.9853785318161</v>
+        <v>434.1180854200109</v>
       </c>
       <c r="W41" t="n">
-        <v>494.9853785318161</v>
+        <v>434.1180854200109</v>
       </c>
       <c r="X41" t="n">
-        <v>494.9853785318161</v>
+        <v>434.1180854200109</v>
       </c>
       <c r="Y41" t="n">
-        <v>494.9853785318161</v>
+        <v>434.1180854200109</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>142.950018297134</v>
+        <v>127.8877345349999</v>
       </c>
       <c r="C42" t="n">
-        <v>142.950018297134</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="D42" t="n">
-        <v>142.950018297134</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="E42" t="n">
-        <v>40.41206376311935</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="F42" t="n">
-        <v>40.41206376311935</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="G42" t="n">
-        <v>11.79337650951356</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="H42" t="n">
-        <v>11.79337650951356</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="I42" t="n">
-        <v>11.79337650951356</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="J42" t="n">
-        <v>11.79337650951356</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="K42" t="n">
-        <v>137.150936567351</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="L42" t="n">
-        <v>283.0939708725813</v>
+        <v>155.358543204533</v>
       </c>
       <c r="M42" t="n">
-        <v>429.0370051778116</v>
+        <v>299.1014943937737</v>
       </c>
       <c r="N42" t="n">
-        <v>429.0370051778116</v>
+        <v>442.8444455830145</v>
       </c>
       <c r="O42" t="n">
-        <v>429.0370051778116</v>
+        <v>580.7796007646092</v>
       </c>
       <c r="P42" t="n">
-        <v>520.2742669623486</v>
+        <v>580.7796007646092</v>
       </c>
       <c r="Q42" t="n">
-        <v>589.668825475678</v>
+        <v>580.7796007646092</v>
       </c>
       <c r="R42" t="n">
-        <v>589.668825475678</v>
+        <v>580.7796007646092</v>
       </c>
       <c r="S42" t="n">
-        <v>589.668825475678</v>
+        <v>465.5431429766974</v>
       </c>
       <c r="T42" t="n">
-        <v>589.668825475678</v>
+        <v>321.5374350968827</v>
       </c>
       <c r="U42" t="n">
-        <v>589.668825475678</v>
+        <v>174.8759197522845</v>
       </c>
       <c r="V42" t="n">
-        <v>440.7625564161633</v>
+        <v>174.8759197522845</v>
       </c>
       <c r="W42" t="n">
-        <v>291.8562873566486</v>
+        <v>127.8877345349999</v>
       </c>
       <c r="X42" t="n">
-        <v>291.8562873566486</v>
+        <v>127.8877345349999</v>
       </c>
       <c r="Y42" t="n">
-        <v>142.950018297134</v>
+        <v>127.8877345349999</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.25022375893192</v>
+        <v>257.3319985416998</v>
       </c>
       <c r="C43" t="n">
-        <v>32.25022375893192</v>
+        <v>146.5767023752122</v>
       </c>
       <c r="D43" t="n">
-        <v>32.25022375893192</v>
+        <v>146.5767023752122</v>
       </c>
       <c r="E43" t="n">
-        <v>32.25022375893192</v>
+        <v>146.5767023752122</v>
       </c>
       <c r="F43" t="n">
-        <v>32.25022375893192</v>
+        <v>146.5767023752122</v>
       </c>
       <c r="G43" t="n">
-        <v>11.79337650951356</v>
+        <v>146.5767023752122</v>
       </c>
       <c r="H43" t="n">
-        <v>11.79337650951356</v>
+        <v>146.5767023752122</v>
       </c>
       <c r="I43" t="n">
-        <v>11.79337650951356</v>
+        <v>47.73690739192619</v>
       </c>
       <c r="J43" t="n">
-        <v>11.79337650951356</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="K43" t="n">
-        <v>45.31776001394873</v>
+        <v>46.59188222253523</v>
       </c>
       <c r="L43" t="n">
-        <v>128.2030654337209</v>
+        <v>130.9290943451153</v>
       </c>
       <c r="M43" t="n">
-        <v>222.9622840380023</v>
+        <v>227.1402196522045</v>
       </c>
       <c r="N43" t="n">
-        <v>322.2243151054978</v>
+        <v>327.8541574225079</v>
       </c>
       <c r="O43" t="n">
-        <v>402.1347721524563</v>
+        <v>409.2165211722743</v>
       </c>
       <c r="P43" t="n">
-        <v>455.01172623676</v>
+        <v>463.5453819593859</v>
       </c>
       <c r="Q43" t="n">
-        <v>455.01172623676</v>
+        <v>463.5453819593859</v>
       </c>
       <c r="R43" t="n">
-        <v>455.01172623676</v>
+        <v>380.7995766105202</v>
       </c>
       <c r="S43" t="n">
-        <v>306.1054571772454</v>
+        <v>380.7995766105202</v>
       </c>
       <c r="T43" t="n">
-        <v>306.1054571772454</v>
+        <v>380.7995766105202</v>
       </c>
       <c r="U43" t="n">
-        <v>157.1991881177308</v>
+        <v>380.7995766105202</v>
       </c>
       <c r="V43" t="n">
-        <v>157.1991881177308</v>
+        <v>380.7995766105202</v>
       </c>
       <c r="W43" t="n">
-        <v>157.1991881177308</v>
+        <v>380.7995766105202</v>
       </c>
       <c r="X43" t="n">
-        <v>157.1991881177308</v>
+        <v>380.7995766105202</v>
       </c>
       <c r="Y43" t="n">
-        <v>157.1991881177308</v>
+        <v>380.7995766105202</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>125.203325929023</v>
+        <v>286.1970566311188</v>
       </c>
       <c r="C44" t="n">
-        <v>125.203325929023</v>
+        <v>158.0216791699694</v>
       </c>
       <c r="D44" t="n">
-        <v>125.203325929023</v>
+        <v>158.0216791699694</v>
       </c>
       <c r="E44" t="n">
-        <v>125.203325929023</v>
+        <v>29.84630170882002</v>
       </c>
       <c r="F44" t="n">
-        <v>125.203325929023</v>
+        <v>29.84630170882002</v>
       </c>
       <c r="G44" t="n">
-        <v>125.203325929023</v>
+        <v>29.84630170882002</v>
       </c>
       <c r="H44" t="n">
-        <v>10.3292743891444</v>
+        <v>29.84630170882002</v>
       </c>
       <c r="I44" t="n">
-        <v>10.3292743891444</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="J44" t="n">
-        <v>10.3292743891444</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="K44" t="n">
-        <v>10.3292743891444</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="L44" t="n">
-        <v>132.9894077602342</v>
+        <v>130.7004323971341</v>
       </c>
       <c r="M44" t="n">
-        <v>260.8141783258961</v>
+        <v>256.3251198468066</v>
       </c>
       <c r="N44" t="n">
-        <v>388.6389488915581</v>
+        <v>381.9498072964791</v>
       </c>
       <c r="O44" t="n">
-        <v>516.46371945722</v>
+        <v>507.5744947461516</v>
       </c>
       <c r="P44" t="n">
-        <v>516.46371945722</v>
+        <v>507.5744947461516</v>
       </c>
       <c r="Q44" t="n">
-        <v>516.46371945722</v>
+        <v>507.5744947461516</v>
       </c>
       <c r="R44" t="n">
-        <v>516.46371945722</v>
+        <v>414.3724340922682</v>
       </c>
       <c r="S44" t="n">
-        <v>516.46371945722</v>
+        <v>414.3724340922682</v>
       </c>
       <c r="T44" t="n">
-        <v>516.46371945722</v>
+        <v>414.3724340922682</v>
       </c>
       <c r="U44" t="n">
-        <v>386.0435882811544</v>
+        <v>414.3724340922682</v>
       </c>
       <c r="V44" t="n">
-        <v>386.0435882811544</v>
+        <v>414.3724340922682</v>
       </c>
       <c r="W44" t="n">
-        <v>255.6234571050887</v>
+        <v>414.3724340922682</v>
       </c>
       <c r="X44" t="n">
-        <v>255.6234571050887</v>
+        <v>414.3724340922682</v>
       </c>
       <c r="Y44" t="n">
-        <v>125.203325929023</v>
+        <v>414.3724340922682</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>404.9478829085929</v>
+        <v>42.27023227634724</v>
       </c>
       <c r="C45" t="n">
-        <v>287.1943540989067</v>
+        <v>42.27023227634724</v>
       </c>
       <c r="D45" t="n">
-        <v>194.9594449090963</v>
+        <v>42.27023227634724</v>
       </c>
       <c r="E45" t="n">
-        <v>92.42149037508166</v>
+        <v>42.27023227634724</v>
       </c>
       <c r="F45" t="n">
-        <v>92.42149037508166</v>
+        <v>42.27023227634724</v>
       </c>
       <c r="G45" t="n">
-        <v>10.39016542913804</v>
+        <v>42.27023227634724</v>
       </c>
       <c r="H45" t="n">
-        <v>10.3292743891444</v>
+        <v>42.27023227634724</v>
       </c>
       <c r="I45" t="n">
-        <v>10.3292743891444</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="J45" t="n">
-        <v>10.3292743891444</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="K45" t="n">
-        <v>10.3292743891444</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="L45" t="n">
-        <v>63.5948492469049</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="M45" t="n">
-        <v>63.5948492469049</v>
+        <v>135.7761773445955</v>
       </c>
       <c r="N45" t="n">
-        <v>191.4196198125669</v>
+        <v>261.400864794268</v>
       </c>
       <c r="O45" t="n">
-        <v>319.2443903782288</v>
+        <v>387.0255522439405</v>
       </c>
       <c r="P45" t="n">
-        <v>447.0691609438907</v>
+        <v>507.5744947461516</v>
       </c>
       <c r="Q45" t="n">
-        <v>516.46371945722</v>
+        <v>507.5744947461516</v>
       </c>
       <c r="R45" t="n">
-        <v>516.46371945722</v>
+        <v>507.5744947461516</v>
       </c>
       <c r="S45" t="n">
-        <v>516.46371945722</v>
+        <v>507.5744947461516</v>
       </c>
       <c r="T45" t="n">
-        <v>516.46371945722</v>
+        <v>507.5744947461516</v>
       </c>
       <c r="U45" t="n">
-        <v>516.46371945722</v>
+        <v>426.7963646597955</v>
       </c>
       <c r="V45" t="n">
-        <v>516.46371945722</v>
+        <v>298.620987198646</v>
       </c>
       <c r="W45" t="n">
-        <v>516.46371945722</v>
+        <v>170.4456097374966</v>
       </c>
       <c r="X45" t="n">
-        <v>516.46371945722</v>
+        <v>42.27023227634724</v>
       </c>
       <c r="Y45" t="n">
-        <v>516.46371945722</v>
+        <v>42.27023227634724</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>323.1274929403252</v>
+        <v>316.3239369365606</v>
       </c>
       <c r="C46" t="n">
-        <v>323.1274929403252</v>
+        <v>205.568640770073</v>
       </c>
       <c r="D46" t="n">
-        <v>323.1274929403252</v>
+        <v>205.568640770073</v>
       </c>
       <c r="E46" t="n">
-        <v>323.1274929403252</v>
+        <v>115.8364339490993</v>
       </c>
       <c r="F46" t="n">
-        <v>323.1274929403252</v>
+        <v>115.8364339490993</v>
       </c>
       <c r="G46" t="n">
-        <v>217.8167860065635</v>
+        <v>115.8364339490993</v>
       </c>
       <c r="H46" t="n">
-        <v>110.6504556624089</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="I46" t="n">
-        <v>10.3292743891444</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="J46" t="n">
-        <v>10.3292743891444</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="K46" t="n">
-        <v>43.85365789357957</v>
+        <v>45.12778010216607</v>
       </c>
       <c r="L46" t="n">
-        <v>126.7389633133517</v>
+        <v>129.4649922247461</v>
       </c>
       <c r="M46" t="n">
-        <v>221.4981819176331</v>
+        <v>225.6761175318354</v>
       </c>
       <c r="N46" t="n">
-        <v>320.7602129851286</v>
+        <v>326.3900553021388</v>
       </c>
       <c r="O46" t="n">
-        <v>400.6706700320871</v>
+        <v>407.7524190519051</v>
       </c>
       <c r="P46" t="n">
-        <v>453.5476241163909</v>
+        <v>462.0812798390168</v>
       </c>
       <c r="Q46" t="n">
-        <v>453.5476241163909</v>
+        <v>462.0812798390168</v>
       </c>
       <c r="R46" t="n">
-        <v>453.5476241163909</v>
+        <v>462.0812798390168</v>
       </c>
       <c r="S46" t="n">
-        <v>323.1274929403252</v>
+        <v>444.49931439771</v>
       </c>
       <c r="T46" t="n">
-        <v>323.1274929403252</v>
+        <v>444.49931439771</v>
       </c>
       <c r="U46" t="n">
-        <v>323.1274929403252</v>
+        <v>444.49931439771</v>
       </c>
       <c r="V46" t="n">
-        <v>323.1274929403252</v>
+        <v>444.49931439771</v>
       </c>
       <c r="W46" t="n">
-        <v>323.1274929403252</v>
+        <v>316.3239369365606</v>
       </c>
       <c r="X46" t="n">
-        <v>323.1274929403252</v>
+        <v>316.3239369365606</v>
       </c>
       <c r="Y46" t="n">
-        <v>323.1274929403252</v>
+        <v>316.3239369365606</v>
       </c>
     </row>
   </sheetData>
@@ -8929,19 +8929,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>254.6833393357264</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9008,10 +9008,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
@@ -9020,10 +9020,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>167.1813723584841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9090,16 +9090,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M16" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N16" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O16" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P16" t="n">
         <v>135.0065633140411</v>
@@ -9166,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>313.6869335537201</v>
+        <v>221.4720368632942</v>
       </c>
       <c r="L17" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>326.1656219137795</v>
       </c>
       <c r="N17" t="n">
-        <v>323.0101461053305</v>
+        <v>325.2324522830977</v>
       </c>
       <c r="O17" t="n">
-        <v>323.6952939304263</v>
+        <v>325.9176001081935</v>
       </c>
       <c r="P17" t="n">
-        <v>321.0483779606257</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>233.6608276608657</v>
       </c>
       <c r="L18" t="n">
-        <v>158.2742483354028</v>
+        <v>234.3737684663809</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>237.9534226085251</v>
       </c>
       <c r="N18" t="n">
-        <v>224.9387945920729</v>
+        <v>223.28961031786</v>
       </c>
       <c r="O18" t="n">
-        <v>236.193326953184</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>227.5714899230698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,22 +9403,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>347.6647739833413</v>
+        <v>254.7104317775774</v>
       </c>
       <c r="M20" t="n">
-        <v>342.2445922406268</v>
+        <v>344.466898418394</v>
       </c>
       <c r="N20" t="n">
-        <v>341.311422609945</v>
+        <v>343.5337287877122</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>344.2188766128079</v>
       </c>
       <c r="P20" t="n">
-        <v>234.5546474237181</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9482,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>251.9621041654802</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>252.6750449709954</v>
       </c>
       <c r="M21" t="n">
-        <v>179.4157334668235</v>
+        <v>256.2546991131396</v>
       </c>
       <c r="N21" t="n">
-        <v>243.2400710966874</v>
+        <v>170.755927657309</v>
       </c>
       <c r="O21" t="n">
-        <v>254.4946034577985</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>245.8727664276843</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9959,19 +9959,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10193,19 +10193,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>184.6294155606472</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10439,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>244.7225752110828</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10825,13 +10825,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>348.0675319949004</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>179.4319144471037</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>346.7357097663615</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O39" t="n">
-        <v>357.9902421274727</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,19 +11062,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>383.1836213389067</v>
+        <v>380.9613151611395</v>
       </c>
       <c r="M41" t="n">
-        <v>377.7634395961923</v>
+        <v>369.6746728046411</v>
       </c>
       <c r="N41" t="n">
-        <v>376.8302699655104</v>
+        <v>374.6079637877432</v>
       </c>
       <c r="O41" t="n">
-        <v>267.5036055020414</v>
+        <v>375.293111612839</v>
       </c>
       <c r="P41" t="n">
         <v>231.2329957552695</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>285.9715861487937</v>
+        <v>283.7492799710265</v>
       </c>
       <c r="M42" t="n">
-        <v>289.5512402909378</v>
+        <v>287.3289341131706</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>276.5366122744856</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>281.9246840218128</v>
       </c>
       <c r="P42" t="n">
-        <v>226.1332577017414</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11302,16 +11302,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>359.6655395872497</v>
+        <v>357.5330235580792</v>
       </c>
       <c r="M44" t="n">
-        <v>359.4621630915777</v>
+        <v>357.2398569138106</v>
       </c>
       <c r="N44" t="n">
-        <v>358.5289934608959</v>
+        <v>356.3066872831288</v>
       </c>
       <c r="O44" t="n">
-        <v>359.2141412859917</v>
+        <v>356.9918351082246</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -11381,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>192.357990747309</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>269.0276576085562</v>
       </c>
       <c r="N45" t="n">
-        <v>260.4576419476383</v>
+        <v>258.2353357698712</v>
       </c>
       <c r="O45" t="n">
-        <v>271.7121743087495</v>
+        <v>269.4898681309824</v>
       </c>
       <c r="P45" t="n">
-        <v>263.0903372786353</v>
+        <v>255.7410160024222</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23497,7 +23497,7 @@
         <v>372.7431424489358</v>
       </c>
       <c r="C14" t="n">
-        <v>332.7158400722319</v>
+        <v>355.2821925564627</v>
       </c>
       <c r="D14" t="n">
         <v>344.6923424061382</v>
@@ -23506,7 +23506,7 @@
         <v>371.939670857717</v>
       </c>
       <c r="F14" t="n">
-        <v>371.2650553325358</v>
+        <v>396.8853465271666</v>
       </c>
       <c r="G14" t="n">
         <v>405.3120383005902</v>
@@ -23554,7 +23554,7 @@
         <v>241.3549536932917</v>
       </c>
       <c r="V14" t="n">
-        <v>292.1412680609592</v>
+        <v>317.7615592555901</v>
       </c>
       <c r="W14" t="n">
         <v>339.2502695028682</v>
@@ -23563,7 +23563,7 @@
         <v>359.7404014639242</v>
       </c>
       <c r="Y14" t="n">
-        <v>350.6269482468779</v>
+        <v>376.2472394415088</v>
       </c>
     </row>
     <row r="15">
@@ -23594,7 +23594,7 @@
         <v>102.2447450219517</v>
       </c>
       <c r="I15" t="n">
-        <v>53.78564244223944</v>
+        <v>79.40593363687027</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,13 +23624,13 @@
         <v>90.16713493809833</v>
       </c>
       <c r="S15" t="n">
-        <v>136.0721806946622</v>
+        <v>161.692471889293</v>
       </c>
       <c r="T15" t="n">
         <v>190.1740294802768</v>
       </c>
       <c r="U15" t="n">
-        <v>190.3303916717992</v>
+        <v>215.95068286643</v>
       </c>
       <c r="V15" t="n">
         <v>222.8098879348805</v>
@@ -23642,7 +23642,7 @@
         <v>195.7822859889327</v>
       </c>
       <c r="Y15" t="n">
-        <v>173.1256440785287</v>
+        <v>195.6919965627596</v>
       </c>
     </row>
     <row r="16">
@@ -23661,7 +23661,7 @@
         <v>138.6247738036676</v>
       </c>
       <c r="E16" t="n">
-        <v>126.1557035591316</v>
+        <v>136.4432634320244</v>
       </c>
       <c r="F16" t="n">
         <v>135.4303488083864</v>
@@ -23670,16 +23670,16 @@
         <v>158.000280143914</v>
       </c>
       <c r="H16" t="n">
-        <v>126.6161820982639</v>
+        <v>152.2364732928948</v>
       </c>
       <c r="I16" t="n">
-        <v>119.8394845180827</v>
+        <v>145.4597757127135</v>
       </c>
       <c r="J16" t="n">
-        <v>57.74818970749714</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>12.27879261133805</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>339.4494483672907</v>
+        <v>337.982875940212</v>
       </c>
       <c r="C17" t="n">
-        <v>321.9884984748177</v>
+        <v>224.7025373612322</v>
       </c>
       <c r="D17" t="n">
-        <v>311.3986483244931</v>
+        <v>309.9320758974144</v>
       </c>
       <c r="E17" t="n">
-        <v>338.6459767760719</v>
+        <v>337.1794043489932</v>
       </c>
       <c r="F17" t="n">
-        <v>269.994569936782</v>
+        <v>362.1250800184429</v>
       </c>
       <c r="G17" t="n">
-        <v>278.4212617102056</v>
+        <v>370.5517717918665</v>
       </c>
       <c r="H17" t="n">
-        <v>202.5933263108377</v>
+        <v>210.3261188374235</v>
       </c>
       <c r="I17" t="n">
-        <v>84.75118600051822</v>
+        <v>165.7249238471374</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>106.5847246449598</v>
+        <v>105.1181522178811</v>
       </c>
       <c r="S17" t="n">
-        <v>165.7356762900555</v>
+        <v>164.2691038629768</v>
       </c>
       <c r="T17" t="n">
-        <v>179.8114562679415</v>
+        <v>178.3448838408628</v>
       </c>
       <c r="U17" t="n">
-        <v>208.0612596116466</v>
+        <v>206.594687184568</v>
       </c>
       <c r="V17" t="n">
-        <v>284.467865173945</v>
+        <v>187.1819040603596</v>
       </c>
       <c r="W17" t="n">
-        <v>305.9565754212231</v>
+        <v>304.4900029941444</v>
       </c>
       <c r="X17" t="n">
-        <v>326.4467073822792</v>
+        <v>324.9801349552005</v>
       </c>
       <c r="Y17" t="n">
-        <v>342.9535453598637</v>
+        <v>245.6675842462783</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>123.2487903536775</v>
+        <v>25.96282924009205</v>
       </c>
       <c r="C18" t="n">
-        <v>129.4241056921259</v>
+        <v>32.13814457854045</v>
       </c>
       <c r="D18" t="n">
-        <v>10.56358975970929</v>
+        <v>102.6940998413702</v>
       </c>
       <c r="E18" t="n">
-        <v>20.76360465047148</v>
+        <v>112.8941147321324</v>
       </c>
       <c r="F18" t="n">
-        <v>8.187736588454413</v>
+        <v>100.3182466701153</v>
       </c>
       <c r="G18" t="n">
-        <v>94.05912386702076</v>
+        <v>92.5925514399421</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>67.48447851322791</v>
       </c>
       <c r="I18" t="n">
-        <v>46.11223955522519</v>
+        <v>44.64566712814653</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>43.38418152306205</v>
+        <v>55.40686842937459</v>
       </c>
       <c r="S18" t="n">
-        <v>128.3987778076479</v>
+        <v>126.9322053805693</v>
       </c>
       <c r="T18" t="n">
-        <v>156.8803353986317</v>
+        <v>155.4137629715531</v>
       </c>
       <c r="U18" t="n">
-        <v>182.6569887847849</v>
+        <v>181.1904163577063</v>
       </c>
       <c r="V18" t="n">
-        <v>189.5161938532354</v>
+        <v>188.0496214261567</v>
       </c>
       <c r="W18" t="n">
-        <v>208.4105898647297</v>
+        <v>206.9440174376511</v>
       </c>
       <c r="X18" t="n">
-        <v>162.4885919072876</v>
+        <v>65.20263079370218</v>
       </c>
       <c r="Y18" t="n">
-        <v>162.3983024811145</v>
+        <v>76.53401249896071</v>
       </c>
     </row>
     <row r="19">
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>136.5475868857474</v>
+        <v>135.0810144586688</v>
       </c>
       <c r="C19" t="n">
-        <v>123.962427802438</v>
+        <v>122.4958553753593</v>
       </c>
       <c r="D19" t="n">
-        <v>105.3310797220225</v>
+        <v>103.8645072949438</v>
       </c>
       <c r="E19" t="n">
-        <v>103.1495693503793</v>
+        <v>101.6829969233006</v>
       </c>
       <c r="F19" t="n">
-        <v>102.1366547267414</v>
+        <v>100.6700822996627</v>
       </c>
       <c r="G19" t="n">
-        <v>124.7065860622689</v>
+        <v>123.2400136351902</v>
       </c>
       <c r="H19" t="n">
-        <v>25.34569670251011</v>
+        <v>21.65681809766429</v>
       </c>
       <c r="I19" t="n">
-        <v>18.56899912232882</v>
+        <v>110.6995092039897</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>48.60821439340423</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>42.8776499555045</v>
+        <v>41.41107752842584</v>
       </c>
       <c r="R19" t="n">
-        <v>134.0089980809796</v>
+        <v>132.5424256539009</v>
       </c>
       <c r="S19" t="n">
-        <v>180.7322047407824</v>
+        <v>83.44624362719696</v>
       </c>
       <c r="T19" t="n">
-        <v>184.6611961320916</v>
+        <v>87.3752350185062</v>
       </c>
       <c r="U19" t="n">
-        <v>210.6691126070861</v>
+        <v>241.5680636332224</v>
       </c>
       <c r="V19" t="n">
-        <v>208.8532500276381</v>
+        <v>207.3866776005595</v>
       </c>
       <c r="W19" t="n">
-        <v>243.2386050404011</v>
+        <v>241.7720326133225</v>
       </c>
       <c r="X19" t="n">
-        <v>182.4252620928473</v>
+        <v>180.9586896657686</v>
       </c>
       <c r="Y19" t="n">
-        <v>81.70317754716532</v>
+        <v>89.43597007375114</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>215.4734792700833</v>
+        <v>325.9052658563587</v>
       </c>
       <c r="C20" t="n">
-        <v>198.0125293776102</v>
+        <v>308.4443159638857</v>
       </c>
       <c r="D20" t="n">
-        <v>299.3210382406397</v>
+        <v>197.3369839132216</v>
       </c>
       <c r="E20" t="n">
-        <v>214.6700076788645</v>
+        <v>210.9811290740187</v>
       </c>
       <c r="F20" t="n">
-        <v>351.5140423616682</v>
+        <v>235.9268047434683</v>
       </c>
       <c r="G20" t="n">
-        <v>359.9407341350918</v>
+        <v>358.4741617080132</v>
       </c>
       <c r="H20" t="n">
-        <v>284.1127987357239</v>
+        <v>168.525561117524</v>
       </c>
       <c r="I20" t="n">
-        <v>155.1138861903627</v>
+        <v>153.647313763284</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>94.50711456110648</v>
+        <v>93.04054213402782</v>
       </c>
       <c r="S20" t="n">
-        <v>153.6580662062021</v>
+        <v>152.1914937791235</v>
       </c>
       <c r="T20" t="n">
-        <v>167.7338461840882</v>
+        <v>166.2672737570095</v>
       </c>
       <c r="U20" t="n">
-        <v>195.9836495277933</v>
+        <v>194.5170771007146</v>
       </c>
       <c r="V20" t="n">
-        <v>272.3902550900917</v>
+        <v>270.923682663013</v>
       </c>
       <c r="W20" t="n">
-        <v>293.8789653373698</v>
+        <v>292.4123929102911</v>
       </c>
       <c r="X20" t="n">
-        <v>215.8090226794635</v>
+        <v>312.9025248713472</v>
       </c>
       <c r="Y20" t="n">
-        <v>330.8759352760104</v>
+        <v>329.4093628489317</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>111.1711802698241</v>
+        <v>109.7046078427455</v>
       </c>
       <c r="C21" t="n">
-        <v>75.65986184576352</v>
+        <v>115.8799231811939</v>
       </c>
       <c r="D21" t="n">
-        <v>92.08306218459555</v>
+        <v>90.61648975751689</v>
       </c>
       <c r="E21" t="n">
-        <v>102.2830770753577</v>
+        <v>100.8165046482791</v>
       </c>
       <c r="F21" t="n">
-        <v>89.70720901334067</v>
+        <v>88.24063658626201</v>
       </c>
       <c r="G21" t="n">
-        <v>81.98151378316743</v>
+        <v>80.51494135608877</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>55.40686842937459</v>
       </c>
       <c r="I21" t="n">
-        <v>34.03462947137186</v>
+        <v>32.56805704429321</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>44.79583077259992</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>4.422808710440535</v>
+        <v>0.7339301055947232</v>
       </c>
       <c r="T21" t="n">
-        <v>32.90436630142432</v>
+        <v>86.14792933288146</v>
       </c>
       <c r="U21" t="n">
-        <v>58.68101968757753</v>
+        <v>54.99214108273172</v>
       </c>
       <c r="V21" t="n">
-        <v>177.4385837693821</v>
+        <v>61.85134615118217</v>
       </c>
       <c r="W21" t="n">
-        <v>196.3329797808764</v>
+        <v>194.8664073537977</v>
       </c>
       <c r="X21" t="n">
-        <v>150.4109818234343</v>
+        <v>148.9444093963556</v>
       </c>
       <c r="Y21" t="n">
-        <v>150.3206923972612</v>
+        <v>148.8541199701825</v>
       </c>
     </row>
     <row r="22">
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>124.4699768018941</v>
+        <v>123.0034043748154</v>
       </c>
       <c r="C22" t="n">
-        <v>34.47884248415524</v>
+        <v>110.418245291506</v>
       </c>
       <c r="D22" t="n">
-        <v>93.25346963816915</v>
+        <v>91.78689721109049</v>
       </c>
       <c r="E22" t="n">
-        <v>91.07195926652597</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>90.05904464288804</v>
+        <v>88.59247221580938</v>
       </c>
       <c r="G22" t="n">
-        <v>0.730616965061472</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>91.52823999964113</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.62189912013642</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>36.5306043095509</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>30.80003987165117</v>
+        <v>29.33346744457251</v>
       </c>
       <c r="R22" t="n">
-        <v>121.9313879971263</v>
+        <v>120.4648155700476</v>
       </c>
       <c r="S22" t="n">
-        <v>168.654594656929</v>
+        <v>167.1880222298504</v>
       </c>
       <c r="T22" t="n">
-        <v>172.5835860482383</v>
+        <v>56.9963484300384</v>
       </c>
       <c r="U22" t="n">
-        <v>230.9570259764477</v>
+        <v>229.490453549369</v>
       </c>
       <c r="V22" t="n">
-        <v>196.7756399437848</v>
+        <v>195.3090675167061</v>
       </c>
       <c r="W22" t="n">
-        <v>231.1609949565478</v>
+        <v>229.6944225294691</v>
       </c>
       <c r="X22" t="n">
-        <v>170.3476520089939</v>
+        <v>168.8810795819153</v>
       </c>
       <c r="Y22" t="n">
-        <v>163.2226499720516</v>
+        <v>47.63541235385169</v>
       </c>
     </row>
     <row r="23">
@@ -24214,19 +24214,19 @@
         <v>265.2864087692679</v>
       </c>
       <c r="E23" t="n">
-        <v>292.5337372208467</v>
+        <v>51.51944834318766</v>
       </c>
       <c r="F23" t="n">
-        <v>317.4794128902964</v>
+        <v>76.46512401263732</v>
       </c>
       <c r="G23" t="n">
         <v>84.89181578606093</v>
       </c>
       <c r="H23" t="n">
-        <v>171.1804049097884</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>60.4724850897346</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>101.5097528938392</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>259.8443358659979</v>
       </c>
       <c r="X23" t="n">
-        <v>39.32017894939491</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y23" t="n">
         <v>296.8413058046385</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>17.59980581833918</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24302,7 +24302,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24332,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S24" t="n">
-        <v>73.98150669191845</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>143.4039542980102</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>116.3763523520624</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.43534733052222</v>
+        <v>51.5479573643866</v>
       </c>
       <c r="C25" t="n">
-        <v>77.85018824721276</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>59.21884016679728</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>57.03732979515409</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>56.02441517151617</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>78.59434650704368</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>72.8305396560245</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>66.05384207584321</v>
@@ -24414,19 +24414,19 @@
         <v>87.89675852575441</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W25" t="n">
-        <v>192.3892792300281</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>136.3130225376221</v>
@@ -24445,25 +24445,25 @@
         <v>293.3372088120655</v>
       </c>
       <c r="C26" t="n">
-        <v>275.8762589195925</v>
+        <v>34.86197004193343</v>
       </c>
       <c r="D26" t="n">
         <v>265.2864087692679</v>
       </c>
       <c r="E26" t="n">
-        <v>51.51944834318766</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F26" t="n">
-        <v>76.46512401263732</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G26" t="n">
         <v>325.90610466372</v>
       </c>
       <c r="H26" t="n">
-        <v>9.063880386693029</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I26" t="n">
-        <v>121.0792567189908</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>60.4724850897346</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>133.6992167127163</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>161.9490200564214</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>26.07023997527784</v>
+        <v>140.8650775326532</v>
       </c>
       <c r="W26" t="n">
         <v>259.8443358659979</v>
@@ -24524,10 +24524,10 @@
         <v>77.13655079845226</v>
       </c>
       <c r="C27" t="n">
-        <v>83.31186613690066</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24536,10 +24536,10 @@
         <v>55.6725795419688</v>
       </c>
       <c r="G27" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24584,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>26.61818736245701</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>92.53274393795515</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C28" t="n">
         <v>77.85018824721276</v>
@@ -24618,7 +24618,7 @@
         <v>78.59434650704368</v>
       </c>
       <c r="H28" t="n">
-        <v>48.93325448241811</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I28" t="n">
         <v>66.05384207584321</v>
@@ -24654,22 +24654,22 @@
         <v>134.6199651855572</v>
       </c>
       <c r="T28" t="n">
-        <v>138.5489565768664</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V28" t="n">
-        <v>162.7410104724129</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>136.3130225376221</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>126.347960577697</v>
       </c>
     </row>
     <row r="29">
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>293.3372088120655</v>
+        <v>52.32291993440646</v>
       </c>
       <c r="C29" t="n">
-        <v>243.6867951007153</v>
+        <v>34.86197004193343</v>
       </c>
       <c r="D29" t="n">
-        <v>265.2864087692679</v>
+        <v>24.27211989160884</v>
       </c>
       <c r="E29" t="n">
-        <v>51.51944834318766</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F29" t="n">
         <v>317.4794128902964</v>
       </c>
       <c r="G29" t="n">
-        <v>84.89181578606093</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H29" t="n">
         <v>250.0781692643521</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T29" t="n">
-        <v>133.6992167127163</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>161.9490200564214</v>
@@ -24745,10 +24745,10 @@
         <v>259.8443358659979</v>
       </c>
       <c r="X29" t="n">
-        <v>39.32017894939491</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y29" t="n">
-        <v>296.8413058046385</v>
+        <v>218.2551368739128</v>
       </c>
     </row>
     <row r="30">
@@ -24758,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>68.48048734591204</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D30" t="n">
         <v>58.04843271322368</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F30" t="n">
         <v>55.6725795419688</v>
       </c>
       <c r="G30" t="n">
-        <v>24.04832498989754</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24809,13 +24809,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>82.28653825242274</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>136.5447492295597</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>77.85018824721276</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E31" t="n">
         <v>57.03732979515409</v>
@@ -24852,13 +24852,13 @@
         <v>56.02441517151617</v>
       </c>
       <c r="G31" t="n">
-        <v>78.59434650704368</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>72.8305396560245</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J31" t="n">
         <v>3.962547265257697</v>
@@ -24891,10 +24891,10 @@
         <v>134.6199651855572</v>
       </c>
       <c r="T31" t="n">
-        <v>138.5489565768664</v>
+        <v>102.8106705797815</v>
       </c>
       <c r="U31" t="n">
-        <v>10.94004973851187</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>162.7410104724129</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.48410854932507</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C32" t="n">
         <v>253.0374475345111</v>
       </c>
       <c r="D32" t="n">
-        <v>30.1622117407444</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E32" t="n">
         <v>269.6949258357653</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.63367370465322</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>96.78462534974888</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>110.8604053276349</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>139.11020867134</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>215.5168142336385</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>237.0055244809166</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>16.48136756431353</v>
+        <v>159.0786559334856</v>
       </c>
       <c r="Y32" t="n">
-        <v>32.98820554189808</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="33">
@@ -25001,7 +25001,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9879911079907302</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25010,7 +25010,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>25.10807292671417</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25049,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>26.09606403470506</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>55.01137686213137</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>36.38002878171589</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>34.19851841007271</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>46.67292537976447</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>49.99172827094311</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>111.7811538004758</v>
       </c>
       <c r="T34" t="n">
-        <v>115.710145191785</v>
+        <v>31.10394072602904</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>113.4742111525407</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="35">
@@ -25162,13 +25162,13 @@
         <v>254.5252074680398</v>
       </c>
       <c r="E35" t="n">
-        <v>281.7725359196186</v>
+        <v>152.3099793537056</v>
       </c>
       <c r="F35" t="n">
         <v>306.7182115890683</v>
       </c>
       <c r="G35" t="n">
-        <v>74.13061448483285</v>
+        <v>315.1449033624919</v>
       </c>
       <c r="H35" t="n">
         <v>239.316967963124</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>108.8622354336022</v>
       </c>
       <c r="T35" t="n">
-        <v>122.9380154114882</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>151.1878187551933</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>173.8825578961585</v>
+        <v>227.5944243174918</v>
       </c>
       <c r="W35" t="n">
-        <v>249.0831345647699</v>
+        <v>8.068845687110809</v>
       </c>
       <c r="X35" t="n">
-        <v>28.55897764816683</v>
+        <v>269.5732665258259</v>
       </c>
       <c r="Y35" t="n">
         <v>286.0801045034104</v>
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>11.57276363142522</v>
       </c>
       <c r="C36" t="n">
-        <v>69.39905728031999</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25250,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>12.07761008385333</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,13 +25283,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>71.52533695119469</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>100.0068945421785</v>
       </c>
       <c r="U36" t="n">
-        <v>125.7835479283317</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>79.67414602929416</v>
       </c>
       <c r="C37" t="n">
-        <v>24.21505632954662</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>48.45763886556922</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.27612849392604</v>
       </c>
       <c r="F37" t="n">
         <v>45.26321387028811</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.1507213488329455</v>
       </c>
       <c r="H37" t="n">
-        <v>62.06933835479644</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>77.13555722452635</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>123.8587638843291</v>
       </c>
       <c r="T37" t="n">
-        <v>127.7877552756384</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>186.1611952038477</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>151.9798091711849</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>186.3651641839479</v>
       </c>
       <c r="X37" t="n">
         <v>125.551821236394</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>118.4268191994517</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>316.6106369822093</v>
+        <v>315.1440645551306</v>
       </c>
       <c r="C38" t="n">
-        <v>299.1496870897363</v>
+        <v>56.6688257849986</v>
       </c>
       <c r="D38" t="n">
-        <v>73.16583925638346</v>
+        <v>46.07897563467395</v>
       </c>
       <c r="E38" t="n">
-        <v>100.4131677079623</v>
+        <v>98.82633173139183</v>
       </c>
       <c r="F38" t="n">
-        <v>125.3588433774119</v>
+        <v>339.2862686333615</v>
       </c>
       <c r="G38" t="n">
-        <v>349.1795328338638</v>
+        <v>347.7129604067851</v>
       </c>
       <c r="H38" t="n">
-        <v>273.3515974344959</v>
+        <v>271.8850250074172</v>
       </c>
       <c r="I38" t="n">
-        <v>144.3526848891347</v>
+        <v>142.886112462056</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>142.8968649049741</v>
+        <v>141.4302924778954</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9726448828601</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>79.24932832723236</v>
+        <v>183.7558757994866</v>
       </c>
       <c r="V38" t="n">
-        <v>261.6290537888636</v>
+        <v>260.162481361785</v>
       </c>
       <c r="W38" t="n">
-        <v>283.1177640361418</v>
+        <v>281.6511916090631</v>
       </c>
       <c r="X38" t="n">
-        <v>303.6078959971978</v>
+        <v>302.1413235701191</v>
       </c>
       <c r="Y38" t="n">
-        <v>320.1147339747823</v>
+        <v>318.6481615477037</v>
       </c>
     </row>
     <row r="39">
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>100.4099789685961</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>66.95224039706649</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>81.32186088336749</v>
+        <v>79.85528845628883</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>90.05530334705102</v>
       </c>
       <c r="F39" t="n">
-        <v>78.94600771211262</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>71.22031248193937</v>
+        <v>69.75374005486071</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>44.64566712814654</v>
       </c>
       <c r="I39" t="n">
-        <v>23.27342817014382</v>
+        <v>13.78070690838748</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>32.56805704429321</v>
       </c>
       <c r="S39" t="n">
-        <v>105.5599664225666</v>
+        <v>104.0933939954879</v>
       </c>
       <c r="T39" t="n">
-        <v>134.0415240135503</v>
+        <v>132.5749515864717</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>166.677382468154</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>138.1832080951276</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25551,28 +25551,28 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>101.1236164173566</v>
+        <v>99.65704399027791</v>
       </c>
       <c r="D40" t="n">
-        <v>82.49226833694109</v>
+        <v>81.02569590986243</v>
       </c>
       <c r="E40" t="n">
-        <v>80.31075796529791</v>
+        <v>78.84418553821925</v>
       </c>
       <c r="F40" t="n">
-        <v>79.29784334165998</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>101.8677746771875</v>
+        <v>100.4012022501088</v>
       </c>
       <c r="H40" t="n">
-        <v>96.10396782616832</v>
+        <v>94.63739539908966</v>
       </c>
       <c r="I40" t="n">
-        <v>89.32727024598702</v>
+        <v>87.86069781890836</v>
       </c>
       <c r="J40" t="n">
-        <v>27.23597543540151</v>
+        <v>25.76940300832285</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>18.57226614334446</v>
       </c>
       <c r="R40" t="n">
-        <v>111.1701866958982</v>
+        <v>109.7036142688196</v>
       </c>
       <c r="S40" t="n">
-        <v>157.893393355701</v>
+        <v>156.4268209286223</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>160.3558123199316</v>
       </c>
       <c r="U40" t="n">
-        <v>177.8148021700588</v>
+        <v>53.63580463434968</v>
       </c>
       <c r="V40" t="n">
-        <v>186.0144386425567</v>
+        <v>184.5478662154781</v>
       </c>
       <c r="W40" t="n">
-        <v>220.3997936553197</v>
+        <v>218.9332212282411</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>158.1198782806872</v>
       </c>
       <c r="Y40" t="n">
-        <v>152.4614486708235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>179.1841298278346</v>
+        <v>325.1347637696755</v>
       </c>
       <c r="C41" t="n">
-        <v>309.1403863042811</v>
+        <v>307.6738138772024</v>
       </c>
       <c r="D41" t="n">
-        <v>262.4420732586354</v>
+        <v>151.8890635357256</v>
       </c>
       <c r="E41" t="n">
-        <v>325.7978646055353</v>
+        <v>196.4436240900898</v>
       </c>
       <c r="F41" t="n">
-        <v>203.3263339060655</v>
+        <v>349.2769678479063</v>
       </c>
       <c r="G41" t="n">
-        <v>211.7530256794891</v>
+        <v>212.5087594301777</v>
       </c>
       <c r="H41" t="n">
-        <v>283.3422966490407</v>
+        <v>281.8757242219621</v>
       </c>
       <c r="I41" t="n">
-        <v>154.3433841036795</v>
+        <v>152.8768116766008</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>92.27004004734457</v>
       </c>
       <c r="S41" t="n">
-        <v>152.8875641195189</v>
+        <v>6.226091501287925</v>
       </c>
       <c r="T41" t="n">
-        <v>166.9633440974049</v>
+        <v>165.4967716703262</v>
       </c>
       <c r="U41" t="n">
-        <v>195.21314744111</v>
+        <v>193.7465750140314</v>
       </c>
       <c r="V41" t="n">
-        <v>271.6197530034084</v>
+        <v>270.1531805763298</v>
       </c>
       <c r="W41" t="n">
-        <v>293.1084632506866</v>
+        <v>291.6418908236079</v>
       </c>
       <c r="X41" t="n">
-        <v>313.5985952117426</v>
+        <v>312.1320227846639</v>
       </c>
       <c r="Y41" t="n">
-        <v>330.1054331893271</v>
+        <v>328.6388607622484</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>110.4006781831409</v>
+        <v>108.9341057560622</v>
       </c>
       <c r="C42" t="n">
-        <v>116.5759935215893</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>91.3125600979123</v>
+        <v>89.84598767083364</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>100.0460025615958</v>
       </c>
       <c r="F42" t="n">
-        <v>88.93670692665742</v>
+        <v>87.47013449957876</v>
       </c>
       <c r="G42" t="n">
-        <v>52.87851131541445</v>
+        <v>79.74443926940552</v>
       </c>
       <c r="H42" t="n">
-        <v>56.10293876977001</v>
+        <v>54.63636634269135</v>
       </c>
       <c r="I42" t="n">
-        <v>33.26412738468862</v>
+        <v>31.79755495760996</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>44.02532868591668</v>
+        <v>42.55875625883802</v>
       </c>
       <c r="S42" t="n">
-        <v>115.5506656371114</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>144.0322232280951</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>169.8088766142484</v>
+        <v>23.1474039960174</v>
       </c>
       <c r="V42" t="n">
-        <v>29.25087531377932</v>
+        <v>175.2015092556202</v>
       </c>
       <c r="W42" t="n">
-        <v>48.14527132527365</v>
+        <v>147.5776019020028</v>
       </c>
       <c r="X42" t="n">
-        <v>149.640479736751</v>
+        <v>148.1739073096724</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.132983941658409</v>
+        <v>148.0836178834992</v>
       </c>
     </row>
     <row r="43">
@@ -25788,28 +25788,28 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>111.1143156319014</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>92.4829675514859</v>
+        <v>91.01639512440724</v>
       </c>
       <c r="E43" t="n">
-        <v>90.30145717984271</v>
+        <v>88.83488475276405</v>
       </c>
       <c r="F43" t="n">
-        <v>89.28854255620479</v>
+        <v>87.82197012912613</v>
       </c>
       <c r="G43" t="n">
-        <v>91.60619511480812</v>
+        <v>110.3919014646536</v>
       </c>
       <c r="H43" t="n">
-        <v>106.0946670407131</v>
+        <v>104.6280946136345</v>
       </c>
       <c r="I43" t="n">
-        <v>99.31796946053183</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>37.22667464994632</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>30.02953778496793</v>
+        <v>28.56296535788927</v>
       </c>
       <c r="R43" t="n">
-        <v>121.160885910443</v>
+        <v>37.77596618798732</v>
       </c>
       <c r="S43" t="n">
-        <v>20.4668862013263</v>
+        <v>166.4175201431671</v>
       </c>
       <c r="T43" t="n">
-        <v>171.813083961555</v>
+        <v>170.3465115344764</v>
       </c>
       <c r="U43" t="n">
-        <v>82.76931752084494</v>
+        <v>228.7199514626858</v>
       </c>
       <c r="V43" t="n">
-        <v>196.0051378571015</v>
+        <v>194.5385654300229</v>
       </c>
       <c r="W43" t="n">
-        <v>230.3904928698645</v>
+        <v>228.9239204427859</v>
       </c>
       <c r="X43" t="n">
-        <v>169.5771499223107</v>
+        <v>168.110577495232</v>
       </c>
       <c r="Y43" t="n">
-        <v>162.4521478853683</v>
+        <v>160.9855754582897</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>326.6013361967541</v>
+        <v>198.2411400831376</v>
       </c>
       <c r="C44" t="n">
-        <v>309.1403863042811</v>
+        <v>180.7801901906645</v>
       </c>
       <c r="D44" t="n">
-        <v>298.5505361539565</v>
+        <v>297.0839637268779</v>
       </c>
       <c r="E44" t="n">
-        <v>325.7978646055353</v>
+        <v>197.4376684919188</v>
       </c>
       <c r="F44" t="n">
-        <v>350.743540274985</v>
+        <v>349.2769678479063</v>
       </c>
       <c r="G44" t="n">
-        <v>359.1702320484086</v>
+        <v>357.70365962133</v>
       </c>
       <c r="H44" t="n">
-        <v>169.6169856245609</v>
+        <v>281.8757242219621</v>
       </c>
       <c r="I44" t="n">
-        <v>154.3433841036795</v>
+        <v>133.3789479808428</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>93.73661247442323</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>152.8875641195189</v>
+        <v>151.4209916924402</v>
       </c>
       <c r="T44" t="n">
-        <v>166.9633440974049</v>
+        <v>165.4967716703262</v>
       </c>
       <c r="U44" t="n">
-        <v>66.09721757680504</v>
+        <v>193.7465750140314</v>
       </c>
       <c r="V44" t="n">
-        <v>271.6197530034084</v>
+        <v>270.1531805763298</v>
       </c>
       <c r="W44" t="n">
-        <v>163.9925333863816</v>
+        <v>291.6418908236079</v>
       </c>
       <c r="X44" t="n">
-        <v>313.5985952117426</v>
+        <v>312.1320227846639</v>
       </c>
       <c r="Y44" t="n">
-        <v>200.9895033250221</v>
+        <v>328.6388607622484</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>108.9341057560622</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>115.1094210945106</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>89.84598767083364</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>100.0460025615958</v>
       </c>
       <c r="F45" t="n">
-        <v>88.93670692665742</v>
+        <v>87.47013449957876</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>79.74443926940552</v>
       </c>
       <c r="H45" t="n">
-        <v>56.0426566401763</v>
+        <v>54.63636634269135</v>
       </c>
       <c r="I45" t="n">
-        <v>33.26412738468862</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.02532868591668</v>
+        <v>42.55875625883802</v>
       </c>
       <c r="S45" t="n">
-        <v>115.5506656371114</v>
+        <v>114.0840932100327</v>
       </c>
       <c r="T45" t="n">
-        <v>144.0322232280951</v>
+        <v>142.5656508010165</v>
       </c>
       <c r="U45" t="n">
-        <v>169.8088766142484</v>
+        <v>88.37195540167717</v>
       </c>
       <c r="V45" t="n">
-        <v>176.6680816826988</v>
+        <v>48.30788556908226</v>
       </c>
       <c r="W45" t="n">
-        <v>195.5624776941931</v>
+        <v>67.2022815805766</v>
       </c>
       <c r="X45" t="n">
-        <v>149.640479736751</v>
+        <v>21.28028362313447</v>
       </c>
       <c r="Y45" t="n">
-        <v>149.5501903105779</v>
+        <v>148.0836178834992</v>
       </c>
     </row>
     <row r="46">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>123.6994747152108</v>
+        <v>122.2329022881322</v>
       </c>
       <c r="C46" t="n">
-        <v>111.1143156319014</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>92.4829675514859</v>
+        <v>91.01639512440724</v>
       </c>
       <c r="E46" t="n">
-        <v>90.30145717984271</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>89.28854255620479</v>
+        <v>87.82197012912613</v>
       </c>
       <c r="G46" t="n">
-        <v>7.600874027308308</v>
+        <v>110.3919014646536</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>97.85139703345317</v>
       </c>
       <c r="J46" t="n">
-        <v>37.22667464994632</v>
+        <v>35.76010222286766</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>30.02953778496793</v>
+        <v>28.56296535788927</v>
       </c>
       <c r="R46" t="n">
-        <v>121.160885910443</v>
+        <v>119.6943134833644</v>
       </c>
       <c r="S46" t="n">
-        <v>38.7681627059408</v>
+        <v>149.0113743562734</v>
       </c>
       <c r="T46" t="n">
-        <v>171.813083961555</v>
+        <v>170.3465115344764</v>
       </c>
       <c r="U46" t="n">
-        <v>230.1865238897644</v>
+        <v>228.7199514626858</v>
       </c>
       <c r="V46" t="n">
-        <v>196.0051378571015</v>
+        <v>194.5385654300229</v>
       </c>
       <c r="W46" t="n">
-        <v>230.3904928698645</v>
+        <v>102.030296756248</v>
       </c>
       <c r="X46" t="n">
-        <v>169.5771499223107</v>
+        <v>168.110577495232</v>
       </c>
       <c r="Y46" t="n">
-        <v>162.4521478853683</v>
+        <v>160.9855754582897</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>321679.0221407012</v>
+        <v>302689.8381478706</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>441649.1092574454</v>
+        <v>446358.4358756828</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>480431.6539190002</v>
+        <v>485140.9805372374</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>637744.751726727</v>
+        <v>637744.7517267268</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>688298.3717306397</v>
+        <v>688298.3717306398</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>661782.687988804</v>
+        <v>661782.6879888038</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>568986.7871168179</v>
+        <v>588187.4246493342</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>504180.9603948352</v>
+        <v>506137.560250872</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>492846.2455565528</v>
+        <v>494802.8454125894</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>696384.887909483</v>
+      </c>
+      <c r="C2" t="n">
         <v>696384.8879094828</v>
       </c>
-      <c r="C2" t="n">
-        <v>696384.8879094827</v>
-      </c>
       <c r="D2" t="n">
-        <v>696384.8879094827</v>
+        <v>696384.8879094829</v>
       </c>
       <c r="E2" t="n">
         <v>204645.9185158958</v>
       </c>
       <c r="F2" t="n">
-        <v>216984.83727095</v>
+        <v>204645.9185158958</v>
       </c>
       <c r="G2" t="n">
-        <v>317572.3021040594</v>
+        <v>321614.4433038935</v>
       </c>
       <c r="H2" t="n">
-        <v>350860.399175895</v>
+        <v>354902.540375729</v>
       </c>
       <c r="I2" t="n">
         <v>475871.0782149278</v>
       </c>
       <c r="J2" t="n">
-        <v>475871.0782149278</v>
+        <v>475871.0782149277</v>
       </c>
       <c r="K2" t="n">
         <v>475871.0782149278</v>
       </c>
       <c r="L2" t="n">
-        <v>523616.1637741785</v>
+        <v>523616.1637741788</v>
       </c>
       <c r="M2" t="n">
         <v>498573.5735735564</v>
       </c>
       <c r="N2" t="n">
-        <v>415608.5340190518</v>
+        <v>429066.935975168</v>
       </c>
       <c r="O2" t="n">
-        <v>366808.34529177</v>
+        <v>369061.8013176396</v>
       </c>
       <c r="P2" t="n">
-        <v>359443.1986085805</v>
+        <v>361696.6546344501</v>
       </c>
     </row>
     <row r="3">
@@ -26377,16 +26377,16 @@
         <v>7992.559371635843</v>
       </c>
       <c r="F3" t="n">
-        <v>7340.879554832794</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>45266.37411264356</v>
+        <v>54070.8703551202</v>
       </c>
       <c r="H3" t="n">
-        <v>14599.9371795162</v>
+        <v>14599.93717951617</v>
       </c>
       <c r="I3" t="n">
-        <v>61562.34076254333</v>
+        <v>59798.12493978238</v>
       </c>
       <c r="J3" t="n">
         <v>7992.559371635843</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>44906.00437338117</v>
+        <v>46079.2623150441</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>100700.3759089239</v>
       </c>
       <c r="F4" t="n">
-        <v>106647.0390707312</v>
+        <v>100700.3759089239</v>
       </c>
       <c r="G4" t="n">
-        <v>168947.1300860203</v>
+        <v>171494.5857022684</v>
       </c>
       <c r="H4" t="n">
-        <v>189926.0978280047</v>
+        <v>192473.5534442528</v>
       </c>
       <c r="I4" t="n">
         <v>264084.511866587</v>
@@ -26453,13 +26453,13 @@
         <v>279354.3701243096</v>
       </c>
       <c r="N4" t="n">
-        <v>225529.0287487223</v>
+        <v>232614.59115317</v>
       </c>
       <c r="O4" t="n">
-        <v>197927.0041301458</v>
+        <v>199612.4143400468</v>
       </c>
       <c r="P4" t="n">
-        <v>194377.4186817215</v>
+        <v>196062.8288916225</v>
       </c>
     </row>
     <row r="5">
@@ -26481,13 +26481,13 @@
         <v>839.9080922675672</v>
       </c>
       <c r="F5" t="n">
-        <v>2397.621796901122</v>
+        <v>839.9080922675672</v>
       </c>
       <c r="G5" t="n">
-        <v>9329.578276548753</v>
+        <v>9587.987769529074</v>
       </c>
       <c r="H5" t="n">
-        <v>11457.64849016878</v>
+        <v>11716.0579831491</v>
       </c>
       <c r="I5" t="n">
         <v>22169.15429094728</v>
@@ -26505,13 +26505,13 @@
         <v>23073.83772314023</v>
       </c>
       <c r="N5" t="n">
-        <v>18654.86675347791</v>
+        <v>20335.87373548354</v>
       </c>
       <c r="O5" t="n">
-        <v>13681.96974931253</v>
+        <v>13670.14681107636</v>
       </c>
       <c r="P5" t="n">
-        <v>12569.25213783197</v>
+        <v>12557.4291995958</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>231858.778466807</v>
+        <v>231814.6426881261</v>
       </c>
       <c r="C6" t="n">
-        <v>231858.7784668068</v>
+        <v>231814.6426881258</v>
       </c>
       <c r="D6" t="n">
-        <v>231858.7784668068</v>
+        <v>231814.642688126</v>
       </c>
       <c r="E6" t="n">
-        <v>95113.07514306858</v>
+        <v>80606.02849987017</v>
       </c>
       <c r="F6" t="n">
-        <v>100599.2968484849</v>
+        <v>88598.58787150604</v>
       </c>
       <c r="G6" t="n">
-        <v>94029.21962884675</v>
+        <v>75394.20356283616</v>
       </c>
       <c r="H6" t="n">
-        <v>134876.7156782054</v>
+        <v>126025.2575332547</v>
       </c>
       <c r="I6" t="n">
-        <v>128055.0712948502</v>
+        <v>123289.4510537961</v>
       </c>
       <c r="J6" t="n">
-        <v>181624.8526857577</v>
+        <v>175095.0166219425</v>
       </c>
       <c r="K6" t="n">
-        <v>189617.4120573936</v>
+        <v>183087.5759935784</v>
       </c>
       <c r="L6" t="n">
-        <v>158420.9160552146</v>
+        <v>152122.0892720678</v>
       </c>
       <c r="M6" t="n">
-        <v>196145.3657261066</v>
+        <v>190283.2501140159</v>
       </c>
       <c r="N6" t="n">
-        <v>171424.6385168516</v>
+        <v>168210.0426038828</v>
       </c>
       <c r="O6" t="n">
-        <v>155199.3714123117</v>
+        <v>146107.9547821929</v>
       </c>
       <c r="P6" t="n">
-        <v>152496.527789027</v>
+        <v>143188.4891976379</v>
       </c>
     </row>
   </sheetData>
@@ -26700,10 +26700,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="G2" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="H2" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="I2" t="n">
         <v>89.39663285141508</v>
@@ -26721,13 +26721,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="N2" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="O2" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="P2" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
     </row>
     <row r="3">
@@ -26801,13 +26801,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>93.59708250873959</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="H4" t="n">
-        <v>111.8983590133541</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="I4" t="n">
         <v>241.0142888776591</v>
@@ -26825,13 +26825,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N4" t="n">
-        <v>215.3939976830282</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>147.4172063689195</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="P4" t="n">
-        <v>129.115929864305</v>
+        <v>126.8936236865379</v>
       </c>
     </row>
   </sheetData>
@@ -26922,13 +26922,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>33.29369408164508</v>
+        <v>34.76026650872374</v>
       </c>
       <c r="H2" t="n">
         <v>12.07761008385333</v>
       </c>
       <c r="I2" t="n">
-        <v>34.03462947137186</v>
+        <v>32.56805704429321</v>
       </c>
       <c r="J2" t="n">
         <v>9.990699214544804</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27023,16 +27023,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>67.97679131410875</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="H4" t="n">
-        <v>18.3012765046145</v>
+        <v>18.3012765046144</v>
       </c>
       <c r="I4" t="n">
-        <v>129.115929864305</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27159,13 +27159,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>33.29369408164508</v>
+        <v>34.76026650872374</v>
       </c>
       <c r="M2" t="n">
         <v>12.07761008385333</v>
       </c>
       <c r="N2" t="n">
-        <v>34.03462947137186</v>
+        <v>32.56805704429321</v>
       </c>
       <c r="O2" t="n">
         <v>9.990699214544804</v>
@@ -27269,13 +27269,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>67.97679131410875</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="P4" t="n">
-        <v>18.3012765046145</v>
+        <v>18.3012765046144</v>
       </c>
     </row>
   </sheetData>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="C17" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="D17" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="E17" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="F17" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="G17" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="H17" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="I17" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28611,28 +28611,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="S17" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="T17" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="U17" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="V17" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="W17" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="X17" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="Y17" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
     </row>
     <row r="18">
@@ -28642,28 +28642,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="C18" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="D18" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="E18" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="F18" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="G18" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="H18" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="I18" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28690,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="S18" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="T18" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="U18" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="V18" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="W18" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="X18" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="Y18" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
     </row>
     <row r="19">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="C19" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="D19" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="E19" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="F19" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="G19" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="H19" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="I19" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="J19" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="K19" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="L19" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="M19" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="N19" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="O19" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="P19" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="Q19" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="R19" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="S19" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="T19" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="U19" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="V19" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="W19" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="X19" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="Y19" t="n">
-        <v>43.28439329618988</v>
+        <v>44.75096572326854</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="C20" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="D20" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="E20" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="F20" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="G20" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="H20" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="I20" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28848,28 +28848,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="S20" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="T20" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="U20" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="V20" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="W20" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="X20" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="Y20" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
     </row>
     <row r="21">
@@ -28879,28 +28879,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="C21" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="D21" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="E21" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="F21" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="G21" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="H21" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="I21" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28927,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="S21" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="T21" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="U21" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="V21" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="W21" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="X21" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="Y21" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
     </row>
     <row r="22">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="C22" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="D22" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="E22" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="F22" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="G22" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="H22" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="I22" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="J22" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="K22" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="L22" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="M22" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="N22" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="O22" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="P22" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="R22" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="S22" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="T22" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="U22" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="V22" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="W22" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="X22" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="Y22" t="n">
-        <v>55.36200338004321</v>
+        <v>56.82857580712187</v>
       </c>
     </row>
     <row r="23">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="C38" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="D38" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="E38" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="F38" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="G38" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="H38" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="I38" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30270,28 +30270,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="S38" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="T38" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="U38" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="V38" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="W38" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="X38" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="Y38" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
     </row>
     <row r="39">
@@ -30301,28 +30301,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="C39" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="D39" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="E39" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="F39" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="G39" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="H39" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="I39" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -30349,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="S39" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="T39" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="U39" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="V39" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="W39" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="X39" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="Y39" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
     </row>
     <row r="40">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="C40" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="D40" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="E40" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="F40" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="G40" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="H40" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="I40" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="J40" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="K40" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="L40" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="M40" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="N40" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="O40" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="P40" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="R40" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="S40" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="T40" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="U40" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="V40" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="W40" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="X40" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.12320468127126</v>
+        <v>67.58977710834992</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="C41" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="D41" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="E41" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="F41" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="G41" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="H41" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="I41" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="S41" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="T41" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="U41" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="V41" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="W41" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="X41" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="Y41" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="C42" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="D42" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="E42" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="F42" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="G42" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="H42" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="I42" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="S42" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="T42" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="U42" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="V42" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="W42" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="X42" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="Y42" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="C43" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="D43" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="E43" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="F43" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="G43" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="H43" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="I43" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="J43" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="K43" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="L43" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="M43" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="N43" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="O43" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="P43" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="Q43" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="R43" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="S43" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="T43" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="U43" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="V43" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="W43" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="X43" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="Y43" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="C44" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="D44" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="E44" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="F44" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="G44" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="H44" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="I44" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="S44" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="T44" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="U44" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="V44" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="W44" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="X44" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="Y44" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="C45" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="D45" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="E45" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="F45" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="G45" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="H45" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="I45" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="S45" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="T45" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="U45" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="V45" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="W45" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="X45" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="Y45" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="C46" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="D46" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="E46" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="F46" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="G46" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="H46" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="I46" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="J46" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="K46" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="L46" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="M46" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="N46" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="O46" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="P46" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="Q46" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="R46" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="S46" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="T46" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="U46" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="V46" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="W46" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="X46" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="Y46" t="n">
-        <v>56.13250546672646</v>
+        <v>57.59907789380512</v>
       </c>
     </row>
   </sheetData>
@@ -35649,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,10 +35740,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>93.59708250873959</v>
+        <v>1.382185818313607</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="N17" t="n">
-        <v>93.59708250873959</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="O17" t="n">
-        <v>93.59708250873959</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="P17" t="n">
-        <v>89.81538220535614</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="L18" t="n">
-        <v>19.71986855552861</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="N18" t="n">
-        <v>93.59708250873959</v>
+        <v>91.9478982345267</v>
       </c>
       <c r="O18" t="n">
-        <v>93.59708250873959</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>93.59708250873959</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>21.01490147030703</v>
+        <v>22.48147389738569</v>
       </c>
       <c r="L19" t="n">
-        <v>70.87441855650601</v>
+        <v>72.34099098358467</v>
       </c>
       <c r="M19" t="n">
-        <v>82.86827025803046</v>
+        <v>84.33484268510912</v>
       </c>
       <c r="N19" t="n">
-        <v>87.41656567541847</v>
+        <v>88.88313810249713</v>
       </c>
       <c r="O19" t="n">
-        <v>67.86952121022955</v>
+        <v>69.33609363730821</v>
       </c>
       <c r="P19" t="n">
-        <v>40.56295256108337</v>
+        <v>42.02952498816203</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>111.8983590133541</v>
+        <v>18.94401680759012</v>
       </c>
       <c r="M20" t="n">
-        <v>111.8983590133541</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="N20" t="n">
-        <v>111.8983590133541</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="P20" t="n">
-        <v>3.321651668448505</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="M21" t="n">
-        <v>37.28169954480517</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="N21" t="n">
-        <v>111.8983590133541</v>
+        <v>39.4142155739757</v>
       </c>
       <c r="O21" t="n">
-        <v>111.8983590133541</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>111.8983590133541</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>33.09251155416036</v>
+        <v>34.55908398123902</v>
       </c>
       <c r="L22" t="n">
-        <v>82.95202864035934</v>
+        <v>84.418601067438</v>
       </c>
       <c r="M22" t="n">
-        <v>94.94588034188379</v>
+        <v>96.41245276896245</v>
       </c>
       <c r="N22" t="n">
-        <v>99.4941757592718</v>
+        <v>100.9607481863505</v>
       </c>
       <c r="O22" t="n">
-        <v>79.94713129408288</v>
+        <v>81.41370372116154</v>
       </c>
       <c r="P22" t="n">
-        <v>52.6405626449367</v>
+        <v>54.10713507201536</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36913,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>46.78797658628819</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37159,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>113.3808631277494</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>117.7212987676277</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>40.87753466722953</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>215.3939976830282</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O39" t="n">
-        <v>215.3939976830282</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>43.85371285538841</v>
+        <v>45.32028528246707</v>
       </c>
       <c r="L40" t="n">
-        <v>93.7132299415874</v>
+        <v>95.17980236866606</v>
       </c>
       <c r="M40" t="n">
-        <v>105.7070816431118</v>
+        <v>107.1736540701905</v>
       </c>
       <c r="N40" t="n">
-        <v>110.2553770604999</v>
+        <v>111.7219494875785</v>
       </c>
       <c r="O40" t="n">
-        <v>90.70833259531094</v>
+        <v>92.17490502238959</v>
       </c>
       <c r="P40" t="n">
-        <v>63.40176394616475</v>
+        <v>64.86833637324341</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>147.4172063689195</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="M41" t="n">
-        <v>147.4172063689195</v>
+        <v>139.3284395773684</v>
       </c>
       <c r="N41" t="n">
-        <v>147.4172063689195</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="O41" t="n">
-        <v>37.40539408035471</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>147.4172063689195</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="M42" t="n">
-        <v>147.4172063689195</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>139.3284395773684</v>
       </c>
       <c r="P42" t="n">
-        <v>92.15885028741117</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>33.8630136408436</v>
+        <v>35.32958606792226</v>
       </c>
       <c r="L43" t="n">
-        <v>83.7225307270426</v>
+        <v>85.18910315412126</v>
       </c>
       <c r="M43" t="n">
-        <v>95.71638242856704</v>
+        <v>97.1829548556457</v>
       </c>
       <c r="N43" t="n">
-        <v>100.264677845955</v>
+        <v>101.7312502730337</v>
       </c>
       <c r="O43" t="n">
-        <v>80.71763338076613</v>
+        <v>82.18420580784479</v>
       </c>
       <c r="P43" t="n">
-        <v>53.41106473161994</v>
+        <v>54.8776371586986</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>123.8991246172624</v>
+        <v>121.766608588092</v>
       </c>
       <c r="M44" t="n">
-        <v>129.115929864305</v>
+        <v>126.8936236865379</v>
       </c>
       <c r="N44" t="n">
-        <v>129.115929864305</v>
+        <v>126.8936236865379</v>
       </c>
       <c r="O44" t="n">
-        <v>129.115929864305</v>
+        <v>126.8936236865379</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>53.80361096743485</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>126.8936236865379</v>
       </c>
       <c r="N45" t="n">
-        <v>129.115929864305</v>
+        <v>126.8936236865379</v>
       </c>
       <c r="O45" t="n">
-        <v>129.115929864305</v>
+        <v>126.8936236865379</v>
       </c>
       <c r="P45" t="n">
-        <v>129.115929864305</v>
+        <v>121.766608588092</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>33.8630136408436</v>
+        <v>35.32958606792226</v>
       </c>
       <c r="L46" t="n">
-        <v>83.7225307270426</v>
+        <v>85.18910315412126</v>
       </c>
       <c r="M46" t="n">
-        <v>95.71638242856704</v>
+        <v>97.1829548556457</v>
       </c>
       <c r="N46" t="n">
-        <v>100.264677845955</v>
+        <v>101.7312502730337</v>
       </c>
       <c r="O46" t="n">
-        <v>80.71763338076613</v>
+        <v>82.18420580784479</v>
       </c>
       <c r="P46" t="n">
-        <v>53.41106473161994</v>
+        <v>54.8776371586986</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
